--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
-    <sheet name="Rules" sheetId="1" r:id="rId2"/>
+    <sheet name="Messages" sheetId="3" r:id="rId2"/>
+    <sheet name="Rules" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="241">
   <si>
     <t>Type</t>
   </si>
@@ -48,696 +49,706 @@
     <t>PET-Treatment Initiation</t>
   </si>
   <si>
-    <t>return_visit_date</t>
-  </si>
-  <si>
     <t>Message Code</t>
   </si>
   <si>
+    <t>Notification Types</t>
+  </si>
+  <si>
+    <t>Schedule Units</t>
+  </si>
+  <si>
+    <t>Encounter Types</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>DAYS</t>
+  </si>
+  <si>
+    <t>MONTHS</t>
+  </si>
+  <si>
+    <t>PET-Contact Registry</t>
+  </si>
+  <si>
+    <t>PET-Treatment Adherence</t>
+  </si>
+  <si>
+    <t>PET-Infection Treatment Eligibility</t>
+  </si>
+  <si>
+    <t>PET-Index Patient Registration</t>
+  </si>
+  <si>
+    <t>PET-Baseline Counselling</t>
+  </si>
+  <si>
+    <t>PET-Baseline Screening</t>
+  </si>
+  <si>
+    <t>PET-Clinician Contact Screening</t>
+  </si>
+  <si>
+    <t>PET-Home Follow-up</t>
+  </si>
+  <si>
+    <t>PET-Clinician Follow-up</t>
+  </si>
+  <si>
+    <t>PET-Counselling Follow-up</t>
+  </si>
+  <si>
+    <t>PET-Adverse Events</t>
+  </si>
+  <si>
+    <t>PET-Incentive Disbursement</t>
+  </si>
+  <si>
+    <t>PET-End of Follow-up</t>
+  </si>
+  <si>
+    <t>PET-Socioeconomic Data</t>
+  </si>
+  <si>
+    <t>Comorbidities-Mental Health Screening</t>
+  </si>
+  <si>
+    <t>FAST-Screening</t>
+  </si>
+  <si>
+    <t>FAST-Prompt</t>
+  </si>
+  <si>
+    <t>FAST-Presumptive</t>
+  </si>
+  <si>
+    <t>FAST-Patient Location</t>
+  </si>
+  <si>
+    <t>FAST-Presumptive Information</t>
+  </si>
+  <si>
+    <t>FAST-GXP Specimen Collection</t>
+  </si>
+  <si>
+    <t>FAST-GXP Test</t>
+  </si>
+  <si>
+    <t>FAST-Screening CXR Test Order</t>
+  </si>
+  <si>
+    <t>FAST-AFB Smear Test Order</t>
+  </si>
+  <si>
+    <t>FAST-DST Culture Test Order</t>
+  </si>
+  <si>
+    <t>FAST-Contact Registry</t>
+  </si>
+  <si>
+    <t>FAST-Referral Form</t>
+  </si>
+  <si>
+    <t>FAST-Treatment Initiation</t>
+  </si>
+  <si>
+    <t>FAST-Treatment Followup</t>
+  </si>
+  <si>
+    <t>FAST-Missed Visit Followup</t>
+  </si>
+  <si>
+    <t>FAST-End of Followup</t>
+  </si>
+  <si>
+    <t>Comorbidities-Patient Information</t>
+  </si>
+  <si>
+    <t>Comorbidities-Co-morbid Conditions Screening</t>
+  </si>
+  <si>
+    <t>Comorbidities-HbA1C Test Order</t>
+  </si>
+  <si>
+    <t>Comorbidities-Blood Sugar Test Order</t>
+  </si>
+  <si>
+    <t>Comorbidities-Vitals</t>
+  </si>
+  <si>
+    <t>Comorbidities-Diabetes Treatment Initiation</t>
+  </si>
+  <si>
+    <t>Comorbidities-Urine Detailed Report Order</t>
+  </si>
+  <si>
+    <t>Comorbidities-Creatinine Test Order</t>
+  </si>
+  <si>
+    <t>Comorbidities-Lipid Test Order</t>
+  </si>
+  <si>
+    <t>Comorbidities-Urine Microalbumin Test Order</t>
+  </si>
+  <si>
+    <t>Comorbidities-Diabetes Treatment Followup</t>
+  </si>
+  <si>
+    <t>Comorbidities-Diabetes Education</t>
+  </si>
+  <si>
+    <t>Comorbidities-Diabetes Foot Screening</t>
+  </si>
+  <si>
+    <t>Comorbidities-Diabetes Eye Screening</t>
+  </si>
+  <si>
+    <t>Comorbidities-Treatment Followup Mental Health</t>
+  </si>
+  <si>
+    <t>Comorbidities-Assessment Form Mental Health</t>
+  </si>
+  <si>
+    <t>Comorbidities-End of Treatment Mental Health</t>
+  </si>
+  <si>
+    <t>Comorbidities-Drug Disbursement</t>
+  </si>
+  <si>
+    <t>Childhood TB-Verbal Screening</t>
+  </si>
+  <si>
+    <t>Childhood TB-Screening Location</t>
+  </si>
+  <si>
+    <t>Childhood TB-Patient Registration</t>
+  </si>
+  <si>
+    <t>Childhood TB-Presumptive Case Confirmation</t>
+  </si>
+  <si>
+    <t>Childhood TB-Contact Registry</t>
+  </si>
+  <si>
+    <t>Childhood TB-PPA Score</t>
+  </si>
+  <si>
+    <t>Childhood TB-Test Indication</t>
+  </si>
+  <si>
+    <t>Childhood TB-GXP Specimen Collection</t>
+  </si>
+  <si>
+    <t>Childhood TB-GXP Test</t>
+  </si>
+  <si>
+    <t>Childhood TB-CXR Screening Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-AFB Smear Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-DST Culture Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-Ultrasound Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-CT Scan Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-Mantoux Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-Histopathology Test Order</t>
+  </si>
+  <si>
+    <t>Childhood TB-Treatment Initiation</t>
+  </si>
+  <si>
+    <t>Childhood TB-TB Treatment Followup</t>
+  </si>
+  <si>
+    <t>Childhood TB-IPT Followup</t>
+  </si>
+  <si>
+    <t>Childhood TB-Antibiotic Trial Followup</t>
+  </si>
+  <si>
+    <t>Childhood TB-Drug Dispersal Form</t>
+  </si>
+  <si>
+    <t>Childhood TB-Referral</t>
+  </si>
+  <si>
+    <t>Childhood TB-Missed Visit Followup</t>
+  </si>
+  <si>
+    <t>Childhood TB-End of Followup</t>
+  </si>
+  <si>
+    <t>Comorbidities-Creatinine Test Result</t>
+  </si>
+  <si>
+    <t>Comorbidities-HbA1C Test Result</t>
+  </si>
+  <si>
+    <t>Comorbidities-Blood Sugar Test Result</t>
+  </si>
+  <si>
+    <t>Comorbidities-Urine Detailed Report Result</t>
+  </si>
+  <si>
+    <t>Comorbidities-Lipid Test Result</t>
+  </si>
+  <si>
+    <t>Comorbidities-Urine Microalbumin Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-CXR Screening Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-AFB Smear Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-DST Culture Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-Ultrasound Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-CT Scan Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-Mantoux Test Result</t>
+  </si>
+  <si>
+    <t>Childhood TB-Histopathology Test Result</t>
+  </si>
+  <si>
+    <t>FAST-AFB Smear Test Result</t>
+  </si>
+  <si>
+    <t>FAST-Screening CXR Test Result</t>
+  </si>
+  <si>
+    <t>FAST-DST Culture Test Result</t>
+  </si>
+  <si>
+    <t>PMDT-Daily Treatment Monitoring</t>
+  </si>
+  <si>
+    <t>PMDT-Basic Management Unit Visit</t>
+  </si>
+  <si>
+    <t>PMDT-Treatment Supporter Assignment</t>
+  </si>
+  <si>
+    <t>PMDT-Treatment Supporter Discontinuation</t>
+  </si>
+  <si>
+    <t>PMDT-Treatment Coordinator Monitoring</t>
+  </si>
+  <si>
+    <t>PMDT-Social Support Food Basket</t>
+  </si>
+  <si>
+    <t>PMDT-Conveyance Allowance</t>
+  </si>
+  <si>
+    <t>PMDT-Nutritional Support</t>
+  </si>
+  <si>
+    <t>PMDT-Nutritional Support Receiving</t>
+  </si>
+  <si>
+    <t>PMDT-Contact Registry</t>
+  </si>
+  <si>
+    <t>PMDT-Contact Baseline Screening</t>
+  </si>
+  <si>
+    <t>PMDT-Monthly Treatment Completeness</t>
+  </si>
+  <si>
+    <t>PMDT-Baseline Medical Assessment</t>
+  </si>
+  <si>
+    <t>PMDT-Treatment Registration</t>
+  </si>
+  <si>
+    <t>PMDT-Expert Panel Review</t>
+  </si>
+  <si>
+    <t>PMDT-Treatment Initiation</t>
+  </si>
+  <si>
+    <t>PMDT-Medication Log</t>
+  </si>
+  <si>
+    <t>PMDT-Followup Medical Assessment</t>
+  </si>
+  <si>
+    <t>PMDT-Field Team Monitoring</t>
+  </si>
+  <si>
+    <t>PMDT-Post Treatment Outcome</t>
+  </si>
+  <si>
+    <t>PMDT-Hospital Admission Notification</t>
+  </si>
+  <si>
+    <t>PMDT-Hospital Discharge Summary</t>
+  </si>
+  <si>
+    <t>PMDT-Adverse Event</t>
+  </si>
+  <si>
+    <t>PMDT-Bacteriology Result</t>
+  </si>
+  <si>
+    <t>PMDT-Hematology Result</t>
+  </si>
+  <si>
+    <t>PMDT-CVAD Insertion</t>
+  </si>
+  <si>
+    <t>PMDT-Serology Result</t>
+  </si>
+  <si>
+    <t>PMDT-Additional Test Result</t>
+  </si>
+  <si>
+    <t>PMDT-Radiology Test Result</t>
+  </si>
+  <si>
+    <t>PMDT-Audiometry Test Result</t>
+  </si>
+  <si>
+    <t>PMDT-ECG Result</t>
+  </si>
+  <si>
+    <t>PMDT-Performance Status</t>
+  </si>
+  <si>
+    <t>PMDT-Drug Dispersal</t>
+  </si>
+  <si>
+    <t>PMDT-AKUADS</t>
+  </si>
+  <si>
+    <t>Baseline Counselling</t>
+  </si>
+  <si>
+    <t>Follow-up Counselling</t>
+  </si>
+  <si>
+    <t>PMDT-Clinician Contact Screening</t>
+  </si>
+  <si>
+    <t>PMDT-Contact Screening Result</t>
+  </si>
+  <si>
+    <t>PMDT-Transfer/Referral out</t>
+  </si>
+  <si>
+    <t>PMDT-Transfer-in Details</t>
+  </si>
+  <si>
+    <t>PET-AKUADS</t>
+  </si>
+  <si>
+    <t>CC - Counselling Check-in</t>
+  </si>
+  <si>
+    <t>CC - General Counselling</t>
+  </si>
+  <si>
+    <t>CC - Diagnostic Test Result Available</t>
+  </si>
+  <si>
+    <t>CC - TB Investigation FUP</t>
+  </si>
+  <si>
+    <t>PET-Test Indication</t>
+  </si>
+  <si>
+    <t>PET-GXP Specimen Collection</t>
+  </si>
+  <si>
+    <t>PET-GXP Test</t>
+  </si>
+  <si>
+    <t>PET-CXR Screening Test Order</t>
+  </si>
+  <si>
+    <t>PET-CXR Screening Test Result</t>
+  </si>
+  <si>
+    <t>PET-AFB Smear Test Order</t>
+  </si>
+  <si>
+    <t>PET-AFB Smear Test Result</t>
+  </si>
+  <si>
+    <t>PET-DST Culture Test Order</t>
+  </si>
+  <si>
+    <t>PET-DST Culture Test Result</t>
+  </si>
+  <si>
+    <t>PET-Ultrasound Test Order</t>
+  </si>
+  <si>
+    <t>PET-Ultrasound Test Result</t>
+  </si>
+  <si>
+    <t>PET-CT Scan Test Order</t>
+  </si>
+  <si>
+    <t>PET-CT Scan Test Result</t>
+  </si>
+  <si>
+    <t>PET-Mantoux Test Order</t>
+  </si>
+  <si>
+    <t>PET-Mantoux Test Result</t>
+  </si>
+  <si>
+    <t>PET-Histopathology Test Order</t>
+  </si>
+  <si>
+    <t>PET-Histopathology Test Result</t>
+  </si>
+  <si>
+    <t>PET-Missed Visit Followup</t>
+  </si>
+  <si>
+    <t>CRM-Outbound Missed FUP</t>
+  </si>
+  <si>
+    <t>Comorbidities-COPD Screening Form</t>
+  </si>
+  <si>
+    <t>Comorbidities-Missed Visit Followup</t>
+  </si>
+  <si>
+    <t>PET-Refusal Form</t>
+  </si>
+  <si>
+    <t>PET-Retrieval Form</t>
+  </si>
+  <si>
+    <t>PET-Home Visit</t>
+  </si>
+  <si>
+    <t>Childhood TB-Supplement Disbursement Form</t>
+  </si>
+  <si>
+    <t>PMDT-Baseline Vitals</t>
+  </si>
+  <si>
+    <t>PMDT-Past TB History</t>
+  </si>
+  <si>
+    <t>PMDT-Comorbidities</t>
+  </si>
+  <si>
+    <t>PMDT-National DR TB Registration</t>
+  </si>
+  <si>
+    <t>CC-Treatment Adherence</t>
+  </si>
+  <si>
+    <t>PMDT-Follow-up Vitals</t>
+  </si>
+  <si>
+    <t>PMDT-Adverse Event Review</t>
+  </si>
+  <si>
+    <t>PMDT-Adverse Event Outcome</t>
+  </si>
+  <si>
+    <t>PMDT-Mental Health Screening</t>
+  </si>
+  <si>
+    <t>PMDT-Assessment Form Mental Health</t>
+  </si>
+  <si>
+    <t>PMDT-End of Treatment</t>
+  </si>
+  <si>
+    <t>GeneXpert Result</t>
+  </si>
+  <si>
+    <t>PMDT-Drug Abuse</t>
+  </si>
+  <si>
+    <t>PMDT-House Hold TB History</t>
+  </si>
+  <si>
+    <t>GXP Specimen Collection</t>
+  </si>
+  <si>
+    <t>PMDT-Vision Screening</t>
+  </si>
+  <si>
+    <t>PMDT-BPNS</t>
+  </si>
+  <si>
+    <t>ZTTS-Screening</t>
+  </si>
+  <si>
+    <t>ZTTS-Presumptive Information</t>
+  </si>
+  <si>
+    <t>ZTTS-Sample Collection</t>
+  </si>
+  <si>
+    <t>ZTTS-CXR Screening Test Order</t>
+  </si>
+  <si>
+    <t>ZTTS-CXR Screening Test Result</t>
+  </si>
+  <si>
+    <t>ZTTS-GeneXpert Result</t>
+  </si>
+  <si>
+    <t>ZTTS-AFB Culture Result</t>
+  </si>
+  <si>
+    <t>CXR Screening Test Order</t>
+  </si>
+  <si>
+    <t>CXR Screening Test Result</t>
+  </si>
+  <si>
+    <t>Patient Information</t>
+  </si>
+  <si>
+    <t>Referral and Transfer</t>
+  </si>
+  <si>
+    <t>Contact Registry</t>
+  </si>
+  <si>
+    <t>End of Followup</t>
+  </si>
+  <si>
+    <t>ZTTS-Blood Sample Collection</t>
+  </si>
+  <si>
+    <t>ZTTS-Child Screening</t>
+  </si>
+  <si>
+    <t>ZTTS-Presumptive Information Child</t>
+  </si>
+  <si>
+    <t>Missed Visit Followup</t>
+  </si>
+  <si>
+    <t>AFB Smear Test Order</t>
+  </si>
+  <si>
+    <t>AFB Smear Test Result</t>
+  </si>
+  <si>
+    <t>DST Culture Test Order</t>
+  </si>
+  <si>
+    <t>DST Culture Test Result</t>
+  </si>
+  <si>
+    <t>Ultrasound Test Order</t>
+  </si>
+  <si>
+    <t>Ultrasound Test Result</t>
+  </si>
+  <si>
+    <t>CT Scan Test Order</t>
+  </si>
+  <si>
+    <t>CT Scan Test Result</t>
+  </si>
+  <si>
+    <t>Mantoux Test Order</t>
+  </si>
+  <si>
+    <t>Mantoux Test Result</t>
+  </si>
+  <si>
+    <t>Histopathology Test Order</t>
+  </si>
+  <si>
+    <t>Histopathology Test Result</t>
+  </si>
+  <si>
+    <t>Clinician Evaluation</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>PATIENT</t>
+  </si>
+  <si>
+    <t>FACILITY</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>DOCTOR</t>
+  </si>
+  <si>
+    <t>CLINIC-EVAL</t>
+  </si>
+  <si>
+    <t>Stop If</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>encounter_datetime</t>
+  </si>
+  <si>
+    <t>{entity:Encounter, property:cough, validate:VALUE, value:YES} AND {entity:Encounter, property:appetite, validate:LIST, value:YES,REFUSED,UNKNOWN}</t>
+  </si>
+  <si>
+    <t>{entity:Encounter, property:cough, validate:VALUE, value:"YES"} OR {entity:Encounter, property:bmi, validate:RANGE, value:"20-30"} OR {entity:Patient, property:primaryContact, validate:REGEX, value:"[0-9]+"}</t>
+  </si>
+  <si>
+    <t>{entity:Encounter, property:mtb_result, validate:LIST, value:"DETECTED,INDETERMINATE"}</t>
+  </si>
+  <si>
+    <t>GXP-POS</t>
+  </si>
+  <si>
     <t>PET-FUP-REM</t>
   </si>
   <si>
-    <t>Notification Types</t>
-  </si>
-  <si>
-    <t>Schedule Units</t>
-  </si>
-  <si>
-    <t>Encounter Types</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CALL</t>
-  </si>
-  <si>
-    <t>HOURS</t>
-  </si>
-  <si>
-    <t>DAYS</t>
-  </si>
-  <si>
-    <t>MONTHS</t>
-  </si>
-  <si>
-    <t>PET-Contact Registry</t>
-  </si>
-  <si>
-    <t>PET-Treatment Adherence</t>
-  </si>
-  <si>
-    <t>PET-Infection Treatment Eligibility</t>
-  </si>
-  <si>
-    <t>PET-Index Patient Registration</t>
-  </si>
-  <si>
-    <t>PET-Baseline Counselling</t>
-  </si>
-  <si>
-    <t>PET-Baseline Screening</t>
-  </si>
-  <si>
-    <t>PET-Clinician Contact Screening</t>
-  </si>
-  <si>
-    <t>PET-Home Follow-up</t>
-  </si>
-  <si>
-    <t>PET-Clinician Follow-up</t>
-  </si>
-  <si>
-    <t>PET-Counselling Follow-up</t>
-  </si>
-  <si>
-    <t>PET-Adverse Events</t>
-  </si>
-  <si>
-    <t>PET-Incentive Disbursement</t>
-  </si>
-  <si>
-    <t>PET-End of Follow-up</t>
-  </si>
-  <si>
-    <t>PET-Socioeconomic Data</t>
-  </si>
-  <si>
-    <t>Comorbidities-Mental Health Screening</t>
-  </si>
-  <si>
-    <t>FAST-Screening</t>
-  </si>
-  <si>
-    <t>FAST-Prompt</t>
-  </si>
-  <si>
-    <t>FAST-Presumptive</t>
-  </si>
-  <si>
-    <t>FAST-Patient Location</t>
-  </si>
-  <si>
-    <t>FAST-Presumptive Information</t>
-  </si>
-  <si>
-    <t>FAST-GXP Specimen Collection</t>
-  </si>
-  <si>
-    <t>FAST-GXP Test</t>
-  </si>
-  <si>
-    <t>FAST-Screening CXR Test Order</t>
-  </si>
-  <si>
-    <t>FAST-AFB Smear Test Order</t>
-  </si>
-  <si>
-    <t>FAST-DST Culture Test Order</t>
-  </si>
-  <si>
-    <t>FAST-Contact Registry</t>
-  </si>
-  <si>
-    <t>FAST-Referral Form</t>
-  </si>
-  <si>
-    <t>FAST-Treatment Initiation</t>
-  </si>
-  <si>
-    <t>FAST-Treatment Followup</t>
-  </si>
-  <si>
-    <t>FAST-Missed Visit Followup</t>
-  </si>
-  <si>
-    <t>FAST-End of Followup</t>
-  </si>
-  <si>
-    <t>Comorbidities-Patient Information</t>
-  </si>
-  <si>
-    <t>Comorbidities-Co-morbid Conditions Screening</t>
-  </si>
-  <si>
-    <t>Comorbidities-HbA1C Test Order</t>
-  </si>
-  <si>
-    <t>Comorbidities-Blood Sugar Test Order</t>
-  </si>
-  <si>
-    <t>Comorbidities-Vitals</t>
-  </si>
-  <si>
-    <t>Comorbidities-Diabetes Treatment Initiation</t>
-  </si>
-  <si>
-    <t>Comorbidities-Urine Detailed Report Order</t>
-  </si>
-  <si>
-    <t>Comorbidities-Creatinine Test Order</t>
-  </si>
-  <si>
-    <t>Comorbidities-Lipid Test Order</t>
-  </si>
-  <si>
-    <t>Comorbidities-Urine Microalbumin Test Order</t>
-  </si>
-  <si>
-    <t>Comorbidities-Diabetes Treatment Followup</t>
-  </si>
-  <si>
-    <t>Comorbidities-Diabetes Education</t>
-  </si>
-  <si>
-    <t>Comorbidities-Diabetes Foot Screening</t>
-  </si>
-  <si>
-    <t>Comorbidities-Diabetes Eye Screening</t>
-  </si>
-  <si>
-    <t>Comorbidities-Treatment Followup Mental Health</t>
-  </si>
-  <si>
-    <t>Comorbidities-Assessment Form Mental Health</t>
-  </si>
-  <si>
-    <t>Comorbidities-End of Treatment Mental Health</t>
-  </si>
-  <si>
-    <t>Comorbidities-Drug Disbursement</t>
-  </si>
-  <si>
-    <t>Childhood TB-Verbal Screening</t>
-  </si>
-  <si>
-    <t>Childhood TB-Screening Location</t>
-  </si>
-  <si>
-    <t>Childhood TB-Patient Registration</t>
-  </si>
-  <si>
-    <t>Childhood TB-Presumptive Case Confirmation</t>
-  </si>
-  <si>
-    <t>Childhood TB-Contact Registry</t>
-  </si>
-  <si>
-    <t>Childhood TB-PPA Score</t>
-  </si>
-  <si>
-    <t>Childhood TB-Test Indication</t>
-  </si>
-  <si>
-    <t>Childhood TB-GXP Specimen Collection</t>
-  </si>
-  <si>
-    <t>Childhood TB-GXP Test</t>
-  </si>
-  <si>
-    <t>Childhood TB-CXR Screening Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-AFB Smear Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-DST Culture Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-Ultrasound Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-CT Scan Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-Mantoux Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-Histopathology Test Order</t>
-  </si>
-  <si>
-    <t>Childhood TB-Treatment Initiation</t>
-  </si>
-  <si>
-    <t>Childhood TB-TB Treatment Followup</t>
-  </si>
-  <si>
-    <t>Childhood TB-IPT Followup</t>
-  </si>
-  <si>
-    <t>Childhood TB-Antibiotic Trial Followup</t>
-  </si>
-  <si>
-    <t>Childhood TB-Drug Dispersal Form</t>
-  </si>
-  <si>
-    <t>Childhood TB-Referral</t>
-  </si>
-  <si>
-    <t>Childhood TB-Missed Visit Followup</t>
-  </si>
-  <si>
-    <t>Childhood TB-End of Followup</t>
-  </si>
-  <si>
-    <t>Comorbidities-Creatinine Test Result</t>
-  </si>
-  <si>
-    <t>Comorbidities-HbA1C Test Result</t>
-  </si>
-  <si>
-    <t>Comorbidities-Blood Sugar Test Result</t>
-  </si>
-  <si>
-    <t>Comorbidities-Urine Detailed Report Result</t>
-  </si>
-  <si>
-    <t>Comorbidities-Lipid Test Result</t>
-  </si>
-  <si>
-    <t>Comorbidities-Urine Microalbumin Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-CXR Screening Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-AFB Smear Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-DST Culture Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-Ultrasound Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-CT Scan Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-Mantoux Test Result</t>
-  </si>
-  <si>
-    <t>Childhood TB-Histopathology Test Result</t>
-  </si>
-  <si>
-    <t>FAST-AFB Smear Test Result</t>
-  </si>
-  <si>
-    <t>FAST-Screening CXR Test Result</t>
-  </si>
-  <si>
-    <t>FAST-DST Culture Test Result</t>
-  </si>
-  <si>
-    <t>PMDT-Daily Treatment Monitoring</t>
-  </si>
-  <si>
-    <t>PMDT-Basic Management Unit Visit</t>
-  </si>
-  <si>
-    <t>PMDT-Treatment Supporter Assignment</t>
-  </si>
-  <si>
-    <t>PMDT-Treatment Supporter Discontinuation</t>
-  </si>
-  <si>
-    <t>PMDT-Treatment Coordinator Monitoring</t>
-  </si>
-  <si>
-    <t>PMDT-Social Support Food Basket</t>
-  </si>
-  <si>
-    <t>PMDT-Conveyance Allowance</t>
-  </si>
-  <si>
-    <t>PMDT-Nutritional Support</t>
-  </si>
-  <si>
-    <t>PMDT-Nutritional Support Receiving</t>
-  </si>
-  <si>
-    <t>PMDT-Contact Registry</t>
-  </si>
-  <si>
-    <t>PMDT-Contact Baseline Screening</t>
-  </si>
-  <si>
-    <t>PMDT-Monthly Treatment Completeness</t>
-  </si>
-  <si>
-    <t>PMDT-Baseline Medical Assessment</t>
-  </si>
-  <si>
-    <t>PMDT-Treatment Registration</t>
-  </si>
-  <si>
-    <t>PMDT-Expert Panel Review</t>
-  </si>
-  <si>
-    <t>PMDT-Treatment Initiation</t>
-  </si>
-  <si>
-    <t>PMDT-Medication Log</t>
-  </si>
-  <si>
-    <t>PMDT-Followup Medical Assessment</t>
-  </si>
-  <si>
-    <t>PMDT-Field Team Monitoring</t>
-  </si>
-  <si>
-    <t>PMDT-Post Treatment Outcome</t>
-  </si>
-  <si>
-    <t>PMDT-Hospital Admission Notification</t>
-  </si>
-  <si>
-    <t>PMDT-Hospital Discharge Summary</t>
-  </si>
-  <si>
-    <t>PMDT-Adverse Event</t>
-  </si>
-  <si>
-    <t>PMDT-Bacteriology Result</t>
-  </si>
-  <si>
-    <t>PMDT-Hematology Result</t>
-  </si>
-  <si>
-    <t>PMDT-CVAD Insertion</t>
-  </si>
-  <si>
-    <t>PMDT-Serology Result</t>
-  </si>
-  <si>
-    <t>PMDT-Additional Test Result</t>
-  </si>
-  <si>
-    <t>PMDT-Radiology Test Result</t>
-  </si>
-  <si>
-    <t>PMDT-Audiometry Test Result</t>
-  </si>
-  <si>
-    <t>PMDT-ECG Result</t>
-  </si>
-  <si>
-    <t>PMDT-Performance Status</t>
-  </si>
-  <si>
-    <t>PMDT-Drug Dispersal</t>
-  </si>
-  <si>
-    <t>PMDT-AKUADS</t>
-  </si>
-  <si>
-    <t>Baseline Counselling</t>
-  </si>
-  <si>
-    <t>Follow-up Counselling</t>
-  </si>
-  <si>
-    <t>PMDT-Clinician Contact Screening</t>
-  </si>
-  <si>
-    <t>PMDT-Contact Screening Result</t>
-  </si>
-  <si>
-    <t>PMDT-Transfer/Referral out</t>
-  </si>
-  <si>
-    <t>PMDT-Transfer-in Details</t>
-  </si>
-  <si>
-    <t>PET-AKUADS</t>
-  </si>
-  <si>
-    <t>CC - Counselling Check-in</t>
-  </si>
-  <si>
-    <t>CC - General Counselling</t>
-  </si>
-  <si>
-    <t>CC - Diagnostic Test Result Available</t>
-  </si>
-  <si>
-    <t>CC - TB Investigation FUP</t>
-  </si>
-  <si>
-    <t>PET-Test Indication</t>
-  </si>
-  <si>
-    <t>PET-GXP Specimen Collection</t>
-  </si>
-  <si>
-    <t>PET-GXP Test</t>
-  </si>
-  <si>
-    <t>PET-CXR Screening Test Order</t>
-  </si>
-  <si>
-    <t>PET-CXR Screening Test Result</t>
-  </si>
-  <si>
-    <t>PET-AFB Smear Test Order</t>
-  </si>
-  <si>
-    <t>PET-AFB Smear Test Result</t>
-  </si>
-  <si>
-    <t>PET-DST Culture Test Order</t>
-  </si>
-  <si>
-    <t>PET-DST Culture Test Result</t>
-  </si>
-  <si>
-    <t>PET-Ultrasound Test Order</t>
-  </si>
-  <si>
-    <t>PET-Ultrasound Test Result</t>
-  </si>
-  <si>
-    <t>PET-CT Scan Test Order</t>
-  </si>
-  <si>
-    <t>PET-CT Scan Test Result</t>
-  </si>
-  <si>
-    <t>PET-Mantoux Test Order</t>
-  </si>
-  <si>
-    <t>PET-Mantoux Test Result</t>
-  </si>
-  <si>
-    <t>PET-Histopathology Test Order</t>
-  </si>
-  <si>
-    <t>PET-Histopathology Test Result</t>
-  </si>
-  <si>
-    <t>PET-Missed Visit Followup</t>
-  </si>
-  <si>
-    <t>CRM-Outbound Missed FUP</t>
-  </si>
-  <si>
-    <t>Comorbidities-COPD Screening Form</t>
-  </si>
-  <si>
-    <t>Comorbidities-Missed Visit Followup</t>
-  </si>
-  <si>
-    <t>PET-Refusal Form</t>
-  </si>
-  <si>
-    <t>PET-Retrieval Form</t>
-  </si>
-  <si>
-    <t>PET-Home Visit</t>
-  </si>
-  <si>
-    <t>Childhood TB-Supplement Disbursement Form</t>
-  </si>
-  <si>
-    <t>PMDT-Baseline Vitals</t>
-  </si>
-  <si>
-    <t>PMDT-Past TB History</t>
-  </si>
-  <si>
-    <t>PMDT-Comorbidities</t>
-  </si>
-  <si>
-    <t>PMDT-National DR TB Registration</t>
-  </si>
-  <si>
-    <t>CC-Treatment Adherence</t>
-  </si>
-  <si>
-    <t>PMDT-Follow-up Vitals</t>
-  </si>
-  <si>
-    <t>PMDT-Adverse Event Review</t>
-  </si>
-  <si>
-    <t>PMDT-Adverse Event Outcome</t>
-  </si>
-  <si>
-    <t>PMDT-Mental Health Screening</t>
-  </si>
-  <si>
-    <t>PMDT-Assessment Form Mental Health</t>
-  </si>
-  <si>
-    <t>PMDT-End of Treatment</t>
-  </si>
-  <si>
-    <t>GeneXpert Result</t>
-  </si>
-  <si>
-    <t>PMDT-Drug Abuse</t>
-  </si>
-  <si>
-    <t>PMDT-House Hold TB History</t>
-  </si>
-  <si>
-    <t>GXP Specimen Collection</t>
-  </si>
-  <si>
-    <t>PMDT-Vision Screening</t>
-  </si>
-  <si>
-    <t>PMDT-BPNS</t>
-  </si>
-  <si>
-    <t>ZTTS-Screening</t>
-  </si>
-  <si>
-    <t>ZTTS-Presumptive Information</t>
-  </si>
-  <si>
-    <t>ZTTS-Sample Collection</t>
-  </si>
-  <si>
-    <t>ZTTS-CXR Screening Test Order</t>
-  </si>
-  <si>
-    <t>ZTTS-CXR Screening Test Result</t>
-  </si>
-  <si>
-    <t>ZTTS-GeneXpert Result</t>
-  </si>
-  <si>
-    <t>ZTTS-AFB Culture Result</t>
-  </si>
-  <si>
-    <t>CXR Screening Test Order</t>
-  </si>
-  <si>
-    <t>CXR Screening Test Result</t>
-  </si>
-  <si>
-    <t>Patient Information</t>
-  </si>
-  <si>
-    <t>Referral and Transfer</t>
-  </si>
-  <si>
-    <t>Contact Registry</t>
-  </si>
-  <si>
-    <t>End of Followup</t>
-  </si>
-  <si>
-    <t>ZTTS-Blood Sample Collection</t>
-  </si>
-  <si>
-    <t>ZTTS-Child Screening</t>
-  </si>
-  <si>
-    <t>ZTTS-Presumptive Information Child</t>
-  </si>
-  <si>
-    <t>Missed Visit Followup</t>
-  </si>
-  <si>
-    <t>AFB Smear Test Order</t>
-  </si>
-  <si>
-    <t>AFB Smear Test Result</t>
-  </si>
-  <si>
-    <t>DST Culture Test Order</t>
-  </si>
-  <si>
-    <t>DST Culture Test Result</t>
-  </si>
-  <si>
-    <t>Ultrasound Test Order</t>
-  </si>
-  <si>
-    <t>Ultrasound Test Result</t>
-  </si>
-  <si>
-    <t>CT Scan Test Order</t>
-  </si>
-  <si>
-    <t>CT Scan Test Result</t>
-  </si>
-  <si>
-    <t>Mantoux Test Order</t>
-  </si>
-  <si>
-    <t>Mantoux Test Result</t>
-  </si>
-  <si>
-    <t>Histopathology Test Order</t>
-  </si>
-  <si>
-    <t>Histopathology Test Result</t>
-  </si>
-  <si>
-    <t>Clinician Evaluation</t>
-  </si>
-  <si>
-    <t>Receivers</t>
-  </si>
-  <si>
-    <t>PATIENT</t>
-  </si>
-  <si>
-    <t>FACILITY</t>
-  </si>
-  <si>
-    <t>SUPERVISOR</t>
-  </si>
-  <si>
-    <t>DOCTOR</t>
-  </si>
-  <si>
-    <t>CLINIC-EVAL</t>
-  </si>
-  <si>
-    <t>Stop If</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t>encounter_datetime</t>
-  </si>
-  <si>
-    <t>treatment_initiated:VALUE=YES
-AND
-something_else:VALUE=NO</t>
-  </si>
-  <si>
-    <t>{cough:VALUE=YES} AND {appetite:LIST=YES,REFUSED,UNKNOWN} AND {bmi:RANGE=20-30}</t>
-  </si>
-  <si>
-    <t>{entity:Encounter, property:cough, validate:VALUE, value:YES} OR {entity:Encounter, property:bmi, validate:RANGE, value:20-30} OR {entity:Patient, property:primaryContact validate:REGEX, value:[0-9]+}</t>
+    <t>Dear {patient.getFullName}. Aao TB Mitao {encounter[encounterType=PET-Treatment Initiation].observations[concept=RETURN VISIT DATE].valueDatetime} ke din {encounter.encounterLocation} pe Doctor ke paas moainay aur dawa hasil karne ke liyey ana hai</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}. {patient.getPatientIdentifier} ka GXP Result Positive aa gaya hai. Please patient ka follow-up visit karain.</t>
   </si>
 </sst>
 </file>
@@ -1086,741 +1097,741 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
@@ -1830,337 +1841,337 @@
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2173,16 +2184,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
@@ -2198,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2213,70 +2273,70 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
-        <v>233</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>234</v>
@@ -2285,16 +2345,16 @@
         <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="F4">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMED\Development_WorkSpaces\eclipse_phantom_workspace\GFATAM\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,8 @@
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="Messages" sheetId="3" r:id="rId2"/>
     <sheet name="Rules" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Blacklist" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="261">
   <si>
     <t>Type</t>
   </si>
@@ -721,9 +723,6 @@
     <t>Conditions</t>
   </si>
   <si>
-    <t>encounter_datetime</t>
-  </si>
-  <si>
     <t>{entity:Encounter, property:cough, validate:VALUE, value:YES} AND {entity:Encounter, property:appetite, validate:LIST, value:YES,REFUSED,UNKNOWN}</t>
   </si>
   <si>
@@ -749,13 +748,78 @@
   </si>
   <si>
     <t>Dear {user.getFullName}. {patient.getPatientIdentifier} ka GXP Result Positive aa gaya hai. Please patient ka follow-up visit karain.</t>
+  </si>
+  <si>
+    <t>Treatment Initiation Form</t>
+  </si>
+  <si>
+    <t>FUP-REM</t>
+  </si>
+  <si>
+    <t>Fetch Duration</t>
+  </si>
+  <si>
+    <t>Past 2 hours</t>
+  </si>
+  <si>
+    <t>Past 2 months</t>
+  </si>
+  <si>
+    <t>encounterDatetime</t>
+  </si>
+  <si>
+    <t>return visit date</t>
+  </si>
+  <si>
+    <t>PT-AFB-POS</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCentre} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>SS-AFB-POS</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.observations[concept=smear_result}].value), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>{entity:Encounter, property:treatment_initiated, validate:VALUE, value:"YES"} 
+AND {entity:Encounter, property:return_visit_date, validate:REGEX, value:""} 
+AND {entity:Patient, property:primaryContact, validate:REGEX, value:"[0-9]+"}</t>
+  </si>
+  <si>
+    <t>return_visit_date</t>
+  </si>
+  <si>
+    <t>CHTB-REM</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>{entity:Encounter, Encounter: End Follow-up, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{entity:Encounter, property:smear_result, validate:LIST, value:" Scanty 3 - 24,THREE PLUS,ONE PLUS ,TWO PLUS"} </t>
+  </si>
+  <si>
+    <t>{entity:Encounter, encounter: End of Followup, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,16 +835,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -788,17 +883,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1218,7 @@
   <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,45 +2318,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="146.140625" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>228</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2233,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2411,7 @@
     <col min="9" max="9" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,84 +2439,101 @@
       <c r="I1" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>225</v>
+      <c r="B2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>235</v>
-      </c>
+      <c r="B3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2367,28 +2545,217 @@
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A7:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G7:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B7:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D7:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Reference!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Reference!$C$2:$C$208</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Reference!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Select notification type">
+          <x14:formula1>
+            <xm:f>Reference!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="266">
   <si>
     <t>Type</t>
   </si>
@@ -813,13 +813,53 @@
   </si>
   <si>
     <t>{entity:Encounter, encounter: End of Followup, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
+  </si>
+  <si>
+    <t>CHTB-1REM</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>{entity:Encounter, property:treatment_initiated, validate:VALUE, value:"YES"} 
+AND {entity:Encounter, property:return_visit_date, validate:NOTNULL}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{entity:Encounter, Encounter: Childhood TB-TB Treatment Followup, validate:Encounter, after:"Childhood TB-Treatment Initiation"} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{entity:Encounter, Encounter: End of Followup, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
+    </r>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter[encounterType=Childhood TB-Treatment Initiation].observations[concept=RETURN VISIT DATE].valueDatetime}, barooz [day of week in urdu], {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,8 +888,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +919,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -911,29 +965,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2318,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,7 +2396,7 @@
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2363,15 +2425,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2379,11 +2441,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2394,9 +2464,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -2411,7 +2481,7 @@
     <col min="9" max="9" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2443,97 +2513,37 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="9">
         <v>-1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,25 +2555,25 @@
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A7:A1048576</xm:sqref>
+          <xm:sqref>A5:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G1048576</xm:sqref>
+          <xm:sqref>G5:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B1048576</xm:sqref>
+          <xm:sqref>B5:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:D1048576</xm:sqref>
+          <xm:sqref>D5:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2573,121 +2583,216 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="10">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>-1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="10" t="s">
         <v>244</v>
       </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMED\Development_WorkSpaces\eclipse_phantom_workspace\GFATAM\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,8 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Blacklist" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="E1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="268">
   <si>
     <t>Type</t>
   </si>
@@ -854,11 +850,17 @@
   <si>
     <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter[encounterType=Childhood TB-Treatment Initiation].observations[concept=RETURN VISIT DATE].valueDatetime}, barooz [day of week in urdu], {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
   </si>
+  <si>
+    <t>Fetch Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPENMRS </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -929,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -952,11 +954,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -997,6 +1010,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1092,7 +1109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1269,7 +1286,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2382,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2464,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,9 +2496,11 @@
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2512,8 +2531,11 @@
       <c r="J1" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -2544,8 +2566,16 @@
       <c r="J2" s="7" t="s">
         <v>262</v>
       </c>
+      <c r="K2" s="18" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"OPENMRS ,DATAWAREHOUSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMED\Development_WorkSpaces\team_lead\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="2"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <sheet name="Blacklist" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="E1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="268">
   <si>
     <t>Type</t>
   </si>
@@ -743,9 +747,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Dear {user.getFullName}. {patient.getPatientIdentifier} ka GXP Result Positive aa gaya hai. Please patient ka follow-up visit karain.</t>
-  </si>
-  <si>
     <t>Treatment Initiation Form</t>
   </si>
   <si>
@@ -770,13 +771,7 @@
     <t>PT-AFB-POS</t>
   </si>
   <si>
-    <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCentre} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>SS-AFB-POS</t>
-  </si>
-  <si>
-    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.observations[concept=smear_result}].value), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
   </si>
   <si>
     <t>User</t>
@@ -814,53 +809,37 @@
     <t>CHTB-1REM</t>
   </si>
   <si>
-    <t>3 months</t>
-  </si>
-  <si>
-    <t>{entity:Encounter, property:treatment_initiated, validate:VALUE, value:"YES"} 
-AND {entity:Encounter, property:return_visit_date, validate:NOTNULL}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{entity:Encounter, Encounter: Childhood TB-TB Treatment Followup, validate:Encounter, after:"Childhood TB-Treatment Initiation"} </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{entity:Encounter, Encounter: End of Followup, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
-    </r>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter[encounterType=Childhood TB-Treatment Initiation].observations[concept=RETURN VISIT DATE].valueDatetime}, barooz [day of week in urdu], {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>Fetch Source</t>
   </si>
   <si>
-    <t xml:space="preserve">OPENMRS </t>
+    <t>Dear {user.getFullName}, {patient.getPatientIdentifier} ka GXP Result Positive aa gaya hai. Please patient ka follow-up visit karain.</t>
+  </si>
+  <si>
+    <t>2 months</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz [day_of_week_in_urdu], {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.smear_result}), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCenter} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"Encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"Encounter","Encounter":"Referral and Transfer","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>OPENMRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -899,7 +878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,8 +909,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -954,22 +939,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -981,20 +955,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1010,10 +975,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +1049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1109,7 +1084,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1286,7 +1261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2409,68 +2384,64 @@
     <col min="2" max="2" width="146.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>239</v>
+      <c r="B4" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>248</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>265</v>
+      <c r="A8" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2483,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,81 +2472,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="20">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="18" t="s">
         <v>261</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>267</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
-      <formula1>"OPENMRS ,DATAWAREHOUSE"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2585,25 +2551,25 @@
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A1048576</xm:sqref>
+          <xm:sqref>A20:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G1048576</xm:sqref>
+          <xm:sqref>G20:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B1048576</xm:sqref>
+          <xm:sqref>B20:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D1048576</xm:sqref>
+          <xm:sqref>D20:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2621,208 +2587,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" s="10">
+      <c r="E1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="7">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="E29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="11">
         <v>-1</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+      <c r="H29" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,16 +2843,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="274">
   <si>
     <t>Type</t>
   </si>
@@ -834,6 +834,25 @@
   </si>
   <si>
     <t>OPENMRS</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}
+AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>CHTB-MISS-REM</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"Encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"Encounter","Encounter":"Referral and Transfer","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>DATAWAREHOUSE</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.gethealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,9 +2451,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -2442,6 +2465,14 @@
       </c>
       <c r="B8" s="6" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2452,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,6 +2570,41 @@
       </c>
       <c r="K2" s="18" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="20">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="270">
   <si>
     <t>Type</t>
   </si>
@@ -818,41 +818,28 @@
     <t>2 months</t>
   </si>
   <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz [day_of_week_in_urdu], {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.smear_result}), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
   </si>
   <si>
     <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCenter} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
   </si>
   <si>
-    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"Encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"Encounter","Encounter":"Referral and Transfer","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
+    <t>CHTB-MISS-REM</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.gethealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
   </si>
   <si>
     <t>OPENMRS</t>
   </si>
   <si>
-    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}
-AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>CHTB-MISS-REM</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"Encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"Encounter","Encounter":"Referral and Transfer","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","Encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
-  </si>
-  <si>
-    <t>DATAWAREHOUSE</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.gethealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+    <t>{"entity":"Encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"Encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"Encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
   </si>
 </sst>
 </file>
@@ -962,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1001,6 +988,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2393,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,7 +2432,7 @@
         <v>246</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2448,7 +2440,7 @@
         <v>247</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2456,7 +2448,7 @@
         <v>253</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2464,15 +2456,15 @@
         <v>258</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2485,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,15 +2529,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>265</v>
+        <v>83</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>268</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>224</v>
@@ -2553,17 +2545,17 @@
       <c r="E2" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="23">
         <v>-1</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>266</v>
+        <v>253</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>261</v>
@@ -2572,40 +2564,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="330.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="20">
-        <v>3</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>271</v>
-      </c>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMED\Development_WorkSpaces\team_lead\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="272">
   <si>
     <t>Type</t>
   </si>
@@ -840,6 +840,12 @@
   </si>
   <si>
     <t>{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"Encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"Encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>Record Only</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -2475,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,11 +2496,11 @@
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="10" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2528,8 +2534,11 @@
       <c r="K1" s="17" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2563,8 +2572,11 @@
       <c r="K2" s="18" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -2576,6 +2588,7 @@
       <c r="I3" s="20"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="Messages" sheetId="3" r:id="rId2"/>
     <sheet name="Rules" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Blacklist" sheetId="5" r:id="rId5"/>
+    <sheet name="Blacklist" sheetId="5" r:id="rId4"/>
+    <sheet name="test" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="323">
   <si>
     <t>Type</t>
   </si>
@@ -818,41 +818,209 @@
     <t>2 months</t>
   </si>
   <si>
-    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.smear_result}), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCenter} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>CHTB-MISS-REM</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.gethealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCenter} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>OPENMRS</t>
   </si>
   <si>
-    <t>{"entity":"Encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"Encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"Encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"Encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
-  </si>
-  <si>
     <t>Record Only</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCentre} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.observations[concept=smear_result}].value), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCentre} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>CHTB-TEST-IND</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>CHTB-MO-EVAL</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>CHTB-MISSED-RESCD</t>
+  </si>
+  <si>
+    <t>FAST-CLINIC-EVAL</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>FAST-CLINIC-EVAL-SPU-SUB</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey aur balgum ka sample jamma karwane ke liyey tashreef lana hai. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>FAST-SPU-SUB</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe balgum ka sample jamma karwane ke liyey tashreef lana hai. Agar ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>FAST-1REM</t>
+  </si>
+  <si>
+    <t>FAST-REM</t>
+  </si>
+  <si>
+    <t>FAST-ANTIBIOTIC-REM</t>
+  </si>
+  <si>
+    <t>REF-TRANS</t>
+  </si>
+  <si>
+    <t>CHTB-MISS-1REM</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, {patient.getHealthCentre} pe ap ko doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 0800-11982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>PET-1REM</t>
+  </si>
+  <si>
+    <t>PET-REM</t>
+  </si>
+  <si>
+    <t>PET-FAC-VISIT</t>
+  </si>
+  <si>
+    <t>PET-MISSED-RESCD</t>
+  </si>
+  <si>
+    <t>PMDT-TX-REG</t>
+  </si>
+  <si>
+    <t>PMDT-POST-TX-TC</t>
+  </si>
+  <si>
+    <t>PMDT-POST-TX-PT</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>DATAWAREHOUSE</t>
+  </si>
+  <si>
+    <t>TREATMENT COORDINATOR</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"166097"}AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>facility_visit_date</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Clinician Evaluation","validate":"encounter","after":"Childhood TB-Verbal Screening"}OR
+{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Verbal Screening"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"165819"}
+AND{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":165818=NULL}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"FAST-Presumptive Information"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Presumptive Information"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"165818"}
+AND{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"165819"}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"GXP Specimen Collection","validate":"encounter","after":"CXR Screening Test Result"}OR{"entity":"encounter","encounter":"GeneXpert Result","validate":"encounter","after":"FAST-Presumptive Information"}AND{"entity":"encounter","encounter":"GeneXpert Result","property":"mtb_result","validate":"LIST","value":"1301,1302"}OR{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"CXR Screening Test Result"}OR
+{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"CXR Screening Test Result"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"LIST","value":165818}
+AND{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":165819=NULL}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"GXP Specimen Collection","validate":"encounter","after":"CC - TB Investigation FUP"}OR{"entity":"encounter","encounter":"GeneXpert Result","validate":"encounter","after":"FAST-Presumptive Information"}AND{"entity":"encounter","encounter":"GeneXpert Result","property":mtb_result,"validate":"LIST","value":1301,1302}OR{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"FAST-Presumptive Information"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Presumptive Information"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"antibiotic","validate":"VALUE","value":"YES"}
+AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","property":"treatment_initiated","validate":"VALUE","value":"YES"}OR
+({"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"})OR({"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER" })</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":referral_site,"validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}
+AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"PET-Clinician Follow-up","validate":"encounter","after":"PET-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"PET-Treatment Initiation"}OR{"entity":"encounter","encounter":"PET-Refusal Form","validate":"encounter","after":"PET-Treatment Initiation"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"PET-Treatment Initiation"}OR{"entity":"encounter","encounter":"PET-Refusal Form","validate":"encounter","after":"PET-Treatment Initiation"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_home_visit","validate":"VALUE","value":"165854"}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":PET-"Clinician Evaluation","validate":"encounter","after":"PET-Home Visit"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"PET-Home Visit"}OR{"entity":"encounter","encounter":"PET-Refusal Form","property":"encounterDatetime","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"PET-Clinician Follow-up"."return_visit_date","validate":"encounter","after":"Missed Visit Followup.missed_assessment_date"} OR
+{"entity":"encounter","encounter":"PET-Refusal Form","validate":"encounter","after":""PET-Clinician Follow-up""}OR
+{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":""PET-Clinician Follow-up""}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"dateCreated","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_outcome","validate":"LIST","value":"159791,160035"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":PMDT-Baseline Medical Assessment,"validate":"encounter","after":"PMDT-End of Treatment"} OR
+{"entity":"encounter","encounter":PMDT-Treatment Registration,"validate":"encounter","after":"PMDT-End of Treatment"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,8 +1057,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,18 +1088,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,24 +1119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -987,25 +1136,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,1098 +1439,1925 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="D6" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="2" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="2" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="2" t="s">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="2" t="s">
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="2" t="s">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="2" t="s">
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="2" t="s">
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="2" t="s">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="2" t="s">
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="2" t="s">
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="2" t="s">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="2" t="s">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="2" t="s">
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="2" t="s">
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="2" t="s">
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="2" t="s">
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="2" t="s">
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="2" t="s">
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="2" t="s">
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="2" t="s">
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="2" t="s">
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="2" t="s">
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="2" t="s">
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="2" t="s">
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="2" t="s">
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="2" t="s">
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="2" t="s">
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="2" t="s">
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="2" t="s">
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="2" t="s">
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="2" t="s">
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="2" t="s">
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="2" t="s">
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="2" t="s">
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" s="2" t="s">
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" s="2" t="s">
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" s="2" t="s">
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" s="2" t="s">
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" s="2" t="s">
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="2" t="s">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" s="2" t="s">
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="2" t="s">
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="2" t="s">
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="13" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="2" t="s">
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="2" t="s">
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="2" t="s">
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="2" t="s">
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="13" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="2" t="s">
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="2" t="s">
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="2" t="s">
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="2" t="s">
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="2" t="s">
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="2" t="s">
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="2" t="s">
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="13" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="2" t="s">
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="2" t="s">
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="2" t="s">
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="2" t="s">
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="2" t="s">
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="2" t="s">
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="2" t="s">
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="13" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="2" t="s">
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="2" t="s">
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="2" t="s">
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="2" t="s">
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="2" t="s">
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="2" t="s">
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="13" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="2" t="s">
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="2" t="s">
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="2" t="s">
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="2" t="s">
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="2" t="s">
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="2" t="s">
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="13" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="2" t="s">
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="2" t="s">
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="2" t="s">
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="2" t="s">
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="2" t="s">
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="2" t="s">
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="2" t="s">
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="13" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="2" t="s">
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="2" t="s">
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="2" t="s">
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="2" t="s">
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="2" t="s">
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="13" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="2" t="s">
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="2" t="s">
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="2" t="s">
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="2" t="s">
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="13" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="2" t="s">
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="2" t="s">
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="2" t="s">
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="2" t="s">
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="13" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="2" t="s">
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="2" t="s">
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="13" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="2" t="s">
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="2" t="s">
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="2" t="s">
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="2" t="s">
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="2" t="s">
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="13" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="2" t="s">
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="2" t="s">
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="2" t="s">
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="2" t="s">
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="13" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="2" t="s">
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="2" t="s">
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="2" t="s">
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="2" t="s">
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="2" t="s">
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="2" t="s">
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="2" t="s">
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="2" t="s">
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="2" t="s">
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="2" t="s">
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="2" t="s">
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="13" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="2" t="s">
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="2" t="s">
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="13" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="2" t="s">
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="13" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="2" t="s">
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="2" t="s">
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="2" t="s">
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="2" t="s">
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="13" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205" s="2" t="s">
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="13" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="2" t="s">
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="13" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207" s="2" t="s">
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208" s="2" t="s">
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="13" t="s">
         <v>193</v>
       </c>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
     </row>
   </sheetData>
   <sortState ref="C2:C209">
@@ -2389,89 +3369,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="146.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="B8" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,114 +3574,658 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" customWidth="1"/>
-    <col min="10" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="24.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="113.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="19">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="I4" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E5" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F8" s="17">
         <v>-1</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="H8" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K10" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2628,6 +4265,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -2636,208 +4309,212 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="2">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>-1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="6">
         <v>-1</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="9">
         <v>-1</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,40 +4549,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="324">
   <si>
     <t>Type</t>
   </si>
@@ -1014,6 +1014,9 @@
   <si>
     <t>{"entity":"encounter","encounter":PMDT-Baseline Medical Assessment,"validate":"encounter","after":"PMDT-End of Treatment"} OR
 {"entity":"encounter","encounter":PMDT-Treatment Registration,"validate":"encounter","after":"PMDT-End of Treatment"}</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, {patient.getPatientIdentifier} ko {location.getLocationName} se doosri Facility {encounter.referral_site} ki janib Refer kar diya gaya hai. Please us Facility pe follow-up karain.</t>
   </si>
 </sst>
 </file>
@@ -3371,7 +3374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3514,7 +3519,9 @@
       <c r="A18" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -3576,7 +3583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" tabRatio="740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
     <sheet name="Messages" sheetId="3" r:id="rId2"/>
     <sheet name="Rules" sheetId="1" r:id="rId3"/>
     <sheet name="Blacklist" sheetId="5" r:id="rId4"/>
-    <sheet name="test" sheetId="4" r:id="rId5"/>
+    <sheet name="In Progress" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="326">
   <si>
     <t>Type</t>
   </si>
@@ -723,15 +723,6 @@
     <t>Conditions</t>
   </si>
   <si>
-    <t>{entity:Encounter, property:cough, validate:VALUE, value:YES} AND {entity:Encounter, property:appetite, validate:LIST, value:YES,REFUSED,UNKNOWN}</t>
-  </si>
-  <si>
-    <t>{entity:Encounter, property:cough, validate:VALUE, value:"YES"} OR {entity:Encounter, property:bmi, validate:RANGE, value:"20-30"} OR {entity:Patient, property:primaryContact, validate:REGEX, value:"[0-9]+"}</t>
-  </si>
-  <si>
-    <t>{entity:Encounter, property:mtb_result, validate:LIST, value:"DETECTED,INDETERMINATE"}</t>
-  </si>
-  <si>
     <t>GXP-POS</t>
   </si>
   <si>
@@ -747,27 +738,12 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Treatment Initiation Form</t>
-  </si>
-  <si>
-    <t>FUP-REM</t>
-  </si>
-  <si>
     <t>Fetch Duration</t>
   </si>
   <si>
-    <t>Past 2 hours</t>
-  </si>
-  <si>
-    <t>Past 2 months</t>
-  </si>
-  <si>
     <t>encounterDatetime</t>
   </si>
   <si>
-    <t>return visit date</t>
-  </si>
-  <si>
     <t>PT-AFB-POS</t>
   </si>
   <si>
@@ -783,11 +759,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>{entity:Encounter, property:treatment_initiated, validate:VALUE, value:"YES"} 
-AND {entity:Encounter, property:return_visit_date, validate:REGEX, value:""} 
-AND {entity:Patient, property:primaryContact, validate:REGEX, value:"[0-9]+"}</t>
-  </si>
-  <si>
     <t>return_visit_date</t>
   </si>
   <si>
@@ -795,15 +766,6 @@
   </si>
   <si>
     <t>Program</t>
-  </si>
-  <si>
-    <t>{entity:Encounter, Encounter: End Follow-up, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{entity:Encounter, property:smear_result, validate:LIST, value:" Scanty 3 - 24,THREE PLUS,ONE PLUS ,TWO PLUS"} </t>
-  </si>
-  <si>
-    <t>{entity:Encounter, encounter: End of Followup, validate:Encounter, after: "Childhood TB-Treatment Initiation"}</t>
   </si>
   <si>
     <t>CHTB-1REM</t>
@@ -1006,9 +968,6 @@
 {"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":""PET-Clinician Follow-up""}</t>
   </si>
   <si>
-    <t>{"entity":"encounter","property":"dateCreated","validate":"NOTNULL"}</t>
-  </si>
-  <si>
     <t>{"entity":"encounter","property":"treatment_outcome","validate":"LIST","value":"159791,160035"}</t>
   </si>
   <si>
@@ -1017,13 +976,98 @@
   </si>
   <si>
     <t>Dear {user.getFullName}, {patient.getPatientIdentifier} ko {location.getLocationName} se doosri Facility {encounter.referral_site} ki janib Refer kar diya gaya hai. Please us Facility pe follow-up karain.</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Observation names</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All get… methods in Patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: https://git.ihsinformatics.com/team-leaders/gfatm-notifications/blob/master/gfatm-notifications-common/src/main/java/com/ihsinformatics/gfatmnotifications/common/model/Patient.java</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All get… methods in Patient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: https://git.ihsinformatics.com/team-leaders/gfatm-notifications/blob/master/gfatm-notifications-common/src/main/java/com/ihsinformatics/gfatmnotifications/common/model/Location.java</t>
+    </r>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>NOTEQUALS</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>REGEX</t>
+  </si>
+  <si>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>NOTNULL</t>
+  </si>
+  <si>
+    <t>PRESENT/EXISTS</t>
+  </si>
+  <si>
+    <t>E.g.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,12 +1082,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1069,33 +1107,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1103,65 +1123,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,9 +1437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1453,1920 +1450,1980 @@
     <col min="3" max="3" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="D6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="H6" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="H7" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="H8" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="H9" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13" t="s">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13" t="s">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13" t="s">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13" t="s">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13" t="s">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13" t="s">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13" t="s">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13" t="s">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13" t="s">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13" t="s">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13" t="s">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13" t="s">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13" t="s">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13" t="s">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13" t="s">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13" t="s">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13" t="s">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13" t="s">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13" t="s">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13" t="s">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13" t="s">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13" t="s">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13" t="s">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13" t="s">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13" t="s">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13" t="s">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13" t="s">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13" t="s">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13" t="s">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13" t="s">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13" t="s">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13" t="s">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13" t="s">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13" t="s">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13" t="s">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13" t="s">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13" t="s">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13" t="s">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13" t="s">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13" t="s">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13" t="s">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13" t="s">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13" t="s">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13" t="s">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13" t="s">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13" t="s">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13" t="s">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13" t="s">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13" t="s">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13" t="s">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13" t="s">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13" t="s">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13" t="s">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13" t="s">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13" t="s">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13" t="s">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13" t="s">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13" t="s">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13" t="s">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13" t="s">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13" t="s">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13" t="s">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13" t="s">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13" t="s">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13" t="s">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13" t="s">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13" t="s">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13" t="s">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13" t="s">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13" t="s">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13" t="s">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13" t="s">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13" t="s">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13" t="s">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13" t="s">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13" t="s">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13" t="s">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13" t="s">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13" t="s">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13" t="s">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13" t="s">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13" t="s">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13" t="s">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13" t="s">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13" t="s">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13" t="s">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13" t="s">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13" t="s">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13" t="s">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13" t="s">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13" t="s">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13" t="s">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13" t="s">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13" t="s">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13" t="s">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13" t="s">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13" t="s">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13" t="s">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13" t="s">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13" t="s">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13" t="s">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13" t="s">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13" t="s">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13" t="s">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13" t="s">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13" t="s">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13" t="s">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13" t="s">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13" t="s">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13" t="s">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13" t="s">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13" t="s">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13" t="s">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13" t="s">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="13" t="s">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="13" t="s">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="13" t="s">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="13" t="s">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="13" t="s">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="13" t="s">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="13" t="s">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="13" t="s">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="13" t="s">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="13" t="s">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="13" t="s">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="13" t="s">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="13" t="s">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="13" t="s">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="13" t="s">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="13" t="s">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
     </row>
   </sheetData>
   <sortState ref="C2:C209">
     <sortCondition ref="C2:C209"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3374,204 +3431,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="B5" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="B11" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="B14" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="B17" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B18" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="B19" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="21"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="21"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" s="21"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="21"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3581,659 +3638,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="24.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="113.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="155.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>263</v>
+      <c r="J1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="19">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="F3" s="19">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="17">
-        <v>3</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="17">
-        <v>3</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="17">
-        <v>3</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4246,25 +3781,25 @@
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A20:A1048576</xm:sqref>
+          <xm:sqref>A6:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G20:G1048576</xm:sqref>
+          <xm:sqref>G6:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
           </x14:formula1>
-          <xm:sqref>B20:B1048576</xm:sqref>
+          <xm:sqref>B6:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D20:D1048576</xm:sqref>
+          <xm:sqref>D6:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4290,16 +3825,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4310,223 +3845,590 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="24.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="89.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="155.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I3" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E5" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="10">
         <v>-1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="F8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="10">
         <v>-1</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="G10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="9">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="10">
         <v>-1</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
+      <c r="H12" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4534,25 +4436,25 @@
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D4</xm:sqref>
+          <xm:sqref>D18:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B4</xm:sqref>
+          <xm:sqref>B18:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G4</xm:sqref>
+          <xm:sqref>G18:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Select notification type">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A4</xm:sqref>
+          <xm:sqref>A18:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="325">
   <si>
     <t>Type</t>
   </si>
@@ -879,19 +879,7 @@
     <t>TREATMENT COORDINATOR</t>
   </si>
   <si>
-    <t>{"entity":"encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
     <t>{"entity":"encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"166097"}AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
   </si>
   <si>
     <t>facility_visit_date</t>
@@ -901,52 +889,19 @@
 {"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Verbal Screening"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
   </si>
   <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"165819"}
-AND{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":165818=NULL}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
     <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"FAST-Presumptive Information"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Presumptive Information"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"165818"}
-AND{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":"165819"}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
   </si>
   <si>
     <t>{"entity":"encounter","encounter":"GXP Specimen Collection","validate":"encounter","after":"CXR Screening Test Result"}OR{"entity":"encounter","encounter":"GeneXpert Result","validate":"encounter","after":"FAST-Presumptive Information"}AND{"entity":"encounter","encounter":"GeneXpert Result","property":"mtb_result","validate":"LIST","value":"1301,1302"}OR{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"CXR Screening Test Result"}OR
 {"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"CXR Screening Test Result"}</t>
   </si>
   <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"LIST","value":165818}
-AND{"entity":"encounter","property":"reason_for_call","validate":"VALUE","value":165819=NULL}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
     <t>{"entity":"encounter","encounter":"GXP Specimen Collection","validate":"encounter","after":"CC - TB Investigation FUP"}OR{"entity":"encounter","encounter":"GeneXpert Result","validate":"encounter","after":"FAST-Presumptive Information"}AND{"entity":"encounter","encounter":"GeneXpert Result","property":mtb_result,"validate":"LIST","value":1301,1302}OR{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"FAST-Presumptive Information"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Presumptive Information"}</t>
   </si>
   <si>
-    <t>{"entity":"encounter","property":"antibiotic","validate":"VALUE","value":"YES"}
-AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","property":"treatment_initiated","validate":"VALUE","value":"YES"}OR
-({"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"})OR({"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER" })</t>
-  </si>
-  <si>
     <t>{"entity":"encounter","property":referral_site,"validate":"NOTNULL"}</t>
   </si>
   <si>
-    <t>{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"treatment_initiated","validate":"VALUE","value":"YES"}
-AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"VALUE","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
     <t>{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
   </si>
   <si>
@@ -954,10 +909,6 @@
   </si>
   <si>
     <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"PET-Treatment Initiation"}OR{"entity":"encounter","encounter":"PET-Refusal Form","validate":"encounter","after":"PET-Treatment Initiation"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_home_visit","validate":"VALUE","value":"165854"}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
   </si>
   <si>
     <t>{"entity":"encounter","encounter":PET-"Clinician Evaluation","validate":"encounter","after":"PET-Home Visit"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"PET-Home Visit"}OR{"entity":"encounter","encounter":"PET-Refusal Form","property":"encounterDatetime","validate":"NOTNULL"}</t>
@@ -1036,9 +987,6 @@
     <t>Validate</t>
   </si>
   <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>NOTEQUALS</t>
   </si>
   <si>
@@ -1060,7 +1008,56 @@
     <t>PRESENT/EXISTS</t>
   </si>
   <si>
-    <t>E.g.</t>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"166097"}AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165819"}
+AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":165818=NULL}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165818"}
+AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165819"}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"LIST","value":165818}
+AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":165819=NULL}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"antibiotic","validate":"EQUALS","value":"YES"}
+AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","property":"treatment_initiated","validate":"EQUALS","value":"YES"}OR
+({"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"})OR({"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER" })</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_initiated","validate":"EQUALS","value":"YES"}
+AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_home_visit","validate":"EQUALS","value":"165854"}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_initiated","validate":"EQUALS","value":"YES"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1156,6 +1153,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,17 +1473,15 @@
         <v>280</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>325</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1505,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1531,10 +1529,10 @@
         <v>241</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1555,10 +1553,10 @@
         <v>242</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1573,7 +1571,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,7 +1585,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" s="14" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,7 +1597,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="14" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1611,7 +1609,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="14" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1623,7 +1621,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="H9" s="14" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3577,7 +3575,7 @@
         <v>270</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3639,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +3705,7 @@
         <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>226</v>
@@ -3725,7 +3723,7 @@
         <v>270</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
@@ -3759,7 +3757,7 @@
         <v>277</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>249</v>
@@ -3847,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,7 +3912,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>224</v>
@@ -3932,7 +3930,7 @@
         <v>246</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>249</v>
@@ -3952,7 +3950,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>224</v>
@@ -3970,7 +3968,7 @@
         <v>244</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>249</v>
@@ -3990,13 +3988,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F4" s="10">
         <v>-1</v>
@@ -4008,7 +4006,7 @@
         <v>258</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
@@ -4025,14 +4023,14 @@
       <c r="B5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>290</v>
+      <c r="C5" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F5" s="10">
         <v>-1</v>
@@ -4044,7 +4042,7 @@
         <v>261</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
@@ -4061,14 +4059,14 @@
       <c r="B6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>292</v>
+      <c r="C6" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F6" s="10">
         <v>-1</v>
@@ -4080,7 +4078,7 @@
         <v>263</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
@@ -4097,14 +4095,14 @@
       <c r="B7" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>294</v>
+      <c r="C7" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F7" s="10">
         <v>-1</v>
@@ -4116,7 +4114,7 @@
         <v>265</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
@@ -4133,8 +4131,8 @@
       <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>296</v>
+      <c r="C8" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>224</v>
@@ -4151,8 +4149,8 @@
       <c r="H8" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>297</v>
+      <c r="I8" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4167,8 +4165,8 @@
       <c r="B9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>300</v>
+      <c r="C9" s="17" t="s">
+        <v>320</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>224</v>
@@ -4186,7 +4184,7 @@
         <v>271</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>249</v>
@@ -4206,7 +4204,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>224</v>
@@ -4224,7 +4222,7 @@
         <v>273</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>249</v>
@@ -4244,7 +4242,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>224</v>
@@ -4262,7 +4260,7 @@
         <v>274</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>249</v>
@@ -4281,14 +4279,14 @@
       <c r="B12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>305</v>
+      <c r="C12" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F12" s="10">
         <v>-1</v>
@@ -4300,7 +4298,7 @@
         <v>275</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>249</v>
@@ -4320,7 +4318,7 @@
         <v>209</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>224</v>
@@ -4338,7 +4336,7 @@
         <v>276</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>249</v>
@@ -4358,7 +4356,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>282</v>
@@ -4376,7 +4374,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>249</v>
@@ -4396,7 +4394,7 @@
         <v>186</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>224</v>
@@ -4414,7 +4412,7 @@
         <v>279</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>249</v>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="323">
   <si>
     <t>Type</t>
   </si>
@@ -705,13 +705,7 @@
     <t>PATIENT</t>
   </si>
   <si>
-    <t>FACILITY</t>
-  </si>
-  <si>
     <t>SUPERVISOR</t>
-  </si>
-  <si>
-    <t>DOCTOR</t>
   </si>
   <si>
     <t>CLINIC-EVAL</t>
@@ -897,9 +891,6 @@
   </si>
   <si>
     <t>{"entity":"encounter","encounter":"GXP Specimen Collection","validate":"encounter","after":"CC - TB Investigation FUP"}OR{"entity":"encounter","encounter":"GeneXpert Result","validate":"encounter","after":"FAST-Presumptive Information"}AND{"entity":"encounter","encounter":"GeneXpert Result","property":mtb_result,"validate":"LIST","value":1301,1302}OR{"entity":"encounter","encounter":"FAST-Treatment Initiation","validate":"encounter","after":"FAST-Presumptive Information"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Presumptive Information"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":referral_site,"validate":"NOTNULL"}</t>
   </si>
   <si>
     <t>{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
@@ -1002,12 +993,6 @@
     <t>LIST</t>
   </si>
   <si>
-    <t>NOTNULL</t>
-  </si>
-  <si>
-    <t>PRESENT/EXISTS</t>
-  </si>
-  <si>
     <t>EQUALS</t>
   </si>
   <si>
@@ -1058,6 +1043,15 @@
   </si>
   <si>
     <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>FACILITY/LOCATION</t>
+  </si>
+  <si>
+    <t>NOTNULL/PRESENT/EXISTS</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTNULL"}</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1434,7 @@
   <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1446,7 @@
     <col min="5" max="5" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1470,16 +1464,16 @@
         <v>223</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I1" s="13"/>
     </row>
@@ -1497,16 +1491,16 @@
         <v>224</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1520,19 +1514,19 @@
         <v>211</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1546,17 +1540,17 @@
         <v>140</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1566,12 +1560,12 @@
         <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1580,12 +1574,9 @@
       <c r="C6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="E6" s="5"/>
       <c r="H6" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1597,7 +1588,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1609,7 +1600,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="14" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1620,9 +1611,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="H9" s="14" t="s">
-        <v>310</v>
-      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -3442,189 +3431,189 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B26" s="14"/>
     </row>
@@ -3636,10 +3625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -3685,16 +3674,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3705,13 +3694,13 @@
         <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -3720,17 +3709,17 @@
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3742,10 +3731,10 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -3754,20 +3743,19 @@
         <v>14</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>249</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>252</v>
-      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3809,9 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3823,16 +3809,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3845,9 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3874,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -3892,16 +3876,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3912,13 +3896,13 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F2" s="12">
         <v>-1</v>
@@ -3927,19 +3911,19 @@
         <v>15</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3950,13 +3934,13 @@
         <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F3" s="12">
         <v>-1</v>
@@ -3965,19 +3949,19 @@
         <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3988,13 +3972,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F4" s="10">
         <v>-1</v>
@@ -4003,20 +3987,20 @@
         <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -4024,13 +4008,13 @@
         <v>150</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F5" s="10">
         <v>-1</v>
@@ -4039,20 +4023,20 @@
         <v>15</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -4060,13 +4044,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F6" s="10">
         <v>-1</v>
@@ -4075,20 +4059,20 @@
         <v>15</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -4096,13 +4080,13 @@
         <v>150</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F7" s="10">
         <v>-1</v>
@@ -4111,20 +4095,20 @@
         <v>15</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -4132,13 +4116,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F8" s="10">
         <v>-1</v>
@@ -4147,18 +4131,18 @@
         <v>15</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -4166,13 +4150,13 @@
         <v>82</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F9" s="10">
         <v>3</v>
@@ -4181,19 +4165,19 @@
         <v>15</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4204,13 +4188,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F10" s="10">
         <v>-1</v>
@@ -4219,19 +4203,19 @@
         <v>15</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4242,13 +4226,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F11" s="10">
         <v>-1</v>
@@ -4257,22 +4241,22 @@
         <v>15</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4280,13 +4264,13 @@
         <v>174</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F12" s="10">
         <v>-1</v>
@@ -4295,19 +4279,19 @@
         <v>15</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4318,13 +4302,13 @@
         <v>209</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F13" s="10">
         <v>-1</v>
@@ -4333,19 +4317,19 @@
         <v>15</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4356,13 +4340,13 @@
         <v>186</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F14" s="10">
         <v>3</v>
@@ -4371,19 +4355,19 @@
         <v>16</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4394,13 +4378,13 @@
         <v>186</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F15" s="10">
         <v>3</v>
@@ -4409,19 +4393,19 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>281</v>
-      </c>
       <c r="L15" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4430,12 +4414,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Reference!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D18:D1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
@@ -4454,6 +4432,12 @@
           </x14:formula1>
           <xm:sqref>A18:A1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Reference!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D18:D1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SADEEQA\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14250" windowHeight="6195" tabRatio="740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6105" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="311">
   <si>
     <t>Type</t>
   </si>
@@ -708,24 +708,12 @@
     <t>SUPERVISOR</t>
   </si>
   <si>
-    <t>CLINIC-EVAL</t>
-  </si>
-  <si>
     <t>Stop If</t>
   </si>
   <si>
     <t>Conditions</t>
   </si>
   <si>
-    <t>GXP-POS</t>
-  </si>
-  <si>
-    <t>PET-FUP-REM</t>
-  </si>
-  <si>
-    <t>Dear {patient.getFullName}. Aao TB Mitao {encounter[encounterType=PET-Treatment Initiation].observations[concept=RETURN VISIT DATE].valueDatetime} ke din {encounter.encounterLocation} pe Doctor ke paas moainay aur dawa hasil karne ke liyey ana hai</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -738,12 +726,6 @@
     <t>encounterDatetime</t>
   </si>
   <si>
-    <t>PT-AFB-POS</t>
-  </si>
-  <si>
-    <t>SS-AFB-POS</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -768,9 +750,6 @@
     <t>Fetch Source</t>
   </si>
   <si>
-    <t>Dear {user.getFullName}, {patient.getPatientIdentifier} ka GXP Result Positive aa gaya hai. Please patient ka follow-up visit karain.</t>
-  </si>
-  <si>
     <t>2 months</t>
   </si>
   <si>
@@ -783,52 +762,16 @@
     <t>YES</t>
   </si>
   <si>
-    <t>{patient.getFullName}, jitni jaldi ho sakay {patient.getHealthCentre} pe Doctor ke pass moainay ki liyay tashreef laain. Appointment laynay kay liyay 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} ka {encounter.encounterDate} tareek ko SMEAR Result Positive ({encounter.observations[concept=smear_result}].value), {encounter.encounterLocation} pe aa gaya hai. Please patient ka follow-up visit karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCentre} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>CHTB-TEST-IND</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>CHTB-MO-EVAL</t>
   </si>
   <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>CHTB-MISSED-RESCD</t>
-  </si>
-  <si>
     <t>FAST-CLINIC-EVAL</t>
   </si>
   <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>FAST-CLINIC-EVAL-SPU-SUB</t>
   </si>
   <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey aur balgum ka sample jamma karwane ke liyey tashreef lana hai. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>FAST-SPU-SUB</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe balgum ka sample jamma karwane ke liyey tashreef lana hai. Agar ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>FAST-1REM</t>
-  </si>
-  <si>
-    <t>FAST-REM</t>
   </si>
   <si>
     <t>FAST-ANTIBIOTIC-REM</t>
@@ -952,6 +895,94 @@
     </r>
   </si>
   <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>NOTEQUALS</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>REGEX</t>
+  </si>
+  <si>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"166097"}AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165819"}
+AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":165818=NULL}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165818"}
+AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165819"}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_call","validate":"LIST","value":165818}
+AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":165819=NULL}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"antibiotic","validate":"EQUALS","value":"YES"}
+AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","property":"treatment_initiated","validate":"EQUALS","value":"YES"}OR
+({"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"})OR({"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER" })</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_initiated","validate":"EQUALS","value":"YES"}
+AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"reason_for_home_visit","validate":"EQUALS","value":"165854"}
+AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","property":"treatment_initiated","validate":"EQUALS","value":"YES"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>FACILITY/LOCATION</t>
+  </si>
+  <si>
+    <t>NOTNULL/PRESENT/EXISTS</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTEQUALS","NOTEQUALS":"OTHER"}</t>
+  </si>
+  <si>
+    <t>FAST-GXP-POS</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, {patient.getpatientIdentifierLocation} pe ap nay balgham jama karya tha jiska result aa gaya hai. baraye mehrbani aap aa kar apna result lay len. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>FAST-GXP-VALID</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {encounter.encounterDate} tareeq ko {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -961,7 +992,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>All get… methods in Patient</t>
+      <t>All get… methods in Location</t>
     </r>
     <r>
       <rPr>
@@ -975,90 +1006,27 @@
     </r>
   </si>
   <si>
-    <t>Validate</t>
-  </si>
-  <si>
-    <t>NOTEQUALS</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>REGEX</t>
-  </si>
-  <si>
-    <t>QUERY</t>
-  </si>
-  <si>
-    <t>LIST</t>
-  </si>
-  <si>
-    <t>EQUALS</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-TB Treatment Followup"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"166097"}AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165819"}
-AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":165818=NULL}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165818"}
-AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":"165819"}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_call","validate":"LIST","value":165818}
-AND{"entity":"encounter","property":"reason_for_call","validate":"EQUALS","value":165819=NULL}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"antibiotic","validate":"EQUALS","value":"YES"}
-AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"FAST-Treatment Initiation","property":"treatment_initiated","validate":"EQUALS","value":"YES"}OR
-({"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"})OR({"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"FAST-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER" })</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"treatment_initiated","validate":"EQUALS","value":"YES"}
-AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":"159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657"}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"reason_for_home_visit","validate":"EQUALS","value":"165854"}
-AND{"entity":"encounter","property":"facility_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","property":"treatment_initiated","validate":"EQUALS","value":"YES"}AND{"entity":"encounter","property":"return_visit_date","validate":"NOTNULL"}</t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}OR{"entity":"encounter","encounter":"End of Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"End of Followup","property":"treatment_outcome","validate":"LIST","value":159791,160035,159874,160034,160031,165836,165837,164791,164792,166221,127750,166222,165891,160037,166288,165657}OR{"entity":"encounter","encounter":"Referral and Transfer","validate":"encounter","after":"Childhood TB-Treatment Initiation"}AND{"entity":"encounter","encounter":"Referral and Transfer","property":"referral_site","validate":"EQUALS","value":"OTHER"}OR{"entity":"patient","property":"getHealthCenterId","validate":"query","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>FACILITY/LOCATION</t>
-  </si>
-  <si>
-    <t>NOTNULL/PRESENT/EXISTS</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTNULL"}</t>
+    <t>{"entity":"Encounter","property":mtb_result,"validate":"VALUE","value":"1301"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":mtb_result,"validate":"LIST","value":"1301,1302"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"VALUE","value":"165854"}OR
+{"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"VALUE","value":"165988"}OR
+{"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,14 +1057,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1118,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1144,12 +1104,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,16 +1432,16 @@
         <v>223</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="I1" s="13"/>
     </row>
@@ -1491,16 +1459,16 @@
         <v>224</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1514,19 +1482,19 @@
         <v>211</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>298</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1544,13 +1512,13 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>299</v>
+        <v>234</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>306</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,12 +1528,12 @@
         <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,7 +1544,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" s="14" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1588,7 +1556,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="14" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1600,7 +1568,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="14" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3416,206 +3384,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="19" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>252</v>
+        <v>304</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3627,25 +3459,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="155.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="155.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3656,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -3674,16 +3506,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3694,13 +3526,13 @@
         <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>225</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -3709,17 +3541,15 @@
         <v>14</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>307</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3731,10 +3561,10 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -3743,19 +3573,88 @@
         <v>14</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3763,29 +3662,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Select notification type">
-          <x14:formula1>
-            <xm:f>Reference!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A6:A1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G1048576</xm:sqref>
+          <xm:sqref>G6:G8 G11:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$C$2:$C$208</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B1048576</xm:sqref>
+          <xm:sqref>B6:B8 B11:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D1048576</xm:sqref>
+          <xm:sqref>D6:D8 D11:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Select notification type">
+          <x14:formula1>
+            <xm:f>Reference!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A6:A8 A11:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3809,16 +3708,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3858,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -3876,16 +3775,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3896,13 +3795,13 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F2" s="12">
         <v>-1</v>
@@ -3911,19 +3810,19 @@
         <v>15</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3934,13 +3833,13 @@
         <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F3" s="12">
         <v>-1</v>
@@ -3949,19 +3848,19 @@
         <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3972,13 +3871,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F4" s="10">
         <v>-1</v>
@@ -3987,17 +3886,17 @@
         <v>15</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -4007,14 +3906,14 @@
       <c r="B5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>310</v>
+      <c r="C5" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F5" s="10">
         <v>-1</v>
@@ -4023,17 +3922,17 @@
         <v>15</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4043,14 +3942,14 @@
       <c r="B6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>311</v>
+      <c r="C6" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F6" s="10">
         <v>-1</v>
@@ -4059,17 +3958,17 @@
         <v>15</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -4079,14 +3978,14 @@
       <c r="B7" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>312</v>
+      <c r="C7" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F7" s="10">
         <v>-1</v>
@@ -4095,17 +3994,17 @@
         <v>15</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -4115,14 +4014,14 @@
       <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>313</v>
+      <c r="C8" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F8" s="10">
         <v>-1</v>
@@ -4131,15 +4030,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>314</v>
+        <v>248</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4149,14 +4048,14 @@
       <c r="B9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>315</v>
+      <c r="C9" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F9" s="10">
         <v>3</v>
@@ -4165,19 +4064,19 @@
         <v>15</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4188,13 +4087,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F10" s="10">
         <v>-1</v>
@@ -4203,19 +4102,19 @@
         <v>15</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4226,13 +4125,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F11" s="10">
         <v>-1</v>
@@ -4241,19 +4140,19 @@
         <v>15</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4263,14 +4162,14 @@
       <c r="B12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>317</v>
+      <c r="C12" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F12" s="10">
         <v>-1</v>
@@ -4279,19 +4178,19 @@
         <v>15</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4302,13 +4201,13 @@
         <v>209</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F13" s="10">
         <v>-1</v>
@@ -4317,19 +4216,19 @@
         <v>15</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4340,13 +4239,13 @@
         <v>186</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F14" s="10">
         <v>3</v>
@@ -4355,19 +4254,19 @@
         <v>16</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4378,13 +4277,13 @@
         <v>186</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F15" s="10">
         <v>3</v>
@@ -4393,19 +4292,19 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SADEEQA\Desktop\automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="313">
   <si>
     <t>Type</t>
   </si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>CHTB-MISS-1REM</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, {patient.getHealthCentre} pe ap ko doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 0800-11982 pe rabta karain.</t>
   </si>
   <si>
     <t>PET-1REM</t>
@@ -968,19 +965,10 @@
     <t>NOTNULL/PRESENT/EXISTS</t>
   </si>
   <si>
-    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTEQUALS","NOTEQUALS":"OTHER"}</t>
-  </si>
-  <si>
     <t>FAST-GXP-POS</t>
   </si>
   <si>
-    <t>{patient.getFullName}, {patient.getpatientIdentifierLocation} pe ap nay balgham jama karya tha jiska result aa gaya hai. baraye mehrbani aap aa kar apna result lay len. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>FAST-GXP-VALID</t>
-  </si>
-  <si>
-    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {encounter.encounterDate} tareeq ko {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
   </si>
   <si>
     <r>
@@ -1020,6 +1008,24 @@
     <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"VALUE","value":"165988"}OR
 {"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
 </t>
+  </si>
+  <si>
+    <t>NOTQUERY</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTEQUALS","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, ap ko {patient.getHealthCentre} pe doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 0800-11982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jis ka result aa gaya hai. Bara-e-mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jiska result aa gaya hai. Bara-e-Mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,16 +1438,16 @@
         <v>223</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>277</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I1" s="13"/>
     </row>
@@ -1465,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1482,19 +1488,19 @@
         <v>211</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>233</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1515,10 +1521,10 @@
         <v>234</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,12 +1534,12 @@
         <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,7 +1550,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="H6" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1556,7 +1562,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="14" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1568,7 +1574,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="14" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,7 +1585,9 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -3387,7 +3395,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +3418,7 @@
         <v>249</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3418,31 +3426,31 @@
         <v>250</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3459,21 +3467,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="14"/>
     <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="155.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="92.5703125" style="14" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -3526,7 +3534,7 @@
         <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>225</v>
@@ -3561,7 +3569,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>231</v>
@@ -3573,7 +3581,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -3592,7 +3600,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
@@ -3607,10 +3615,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
@@ -3628,7 +3636,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
@@ -3643,10 +3651,10 @@
         <v>14</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
@@ -3795,7 +3803,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>224</v>
@@ -3813,13 +3821,13 @@
         <v>238</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>243</v>
@@ -3833,7 +3841,7 @@
         <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>224</v>
@@ -3851,13 +3859,13 @@
         <v>236</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>243</v>
@@ -3871,13 +3879,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" s="10">
         <v>-1</v>
@@ -3889,11 +3897,11 @@
         <v>244</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>243</v>
@@ -3907,13 +3915,13 @@
         <v>150</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F5" s="10">
         <v>-1</v>
@@ -3925,11 +3933,11 @@
         <v>245</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>243</v>
@@ -3943,13 +3951,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="10">
         <v>-1</v>
@@ -3961,11 +3969,11 @@
         <v>246</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>243</v>
@@ -3979,13 +3987,13 @@
         <v>150</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="10">
         <v>-1</v>
@@ -3997,11 +4005,11 @@
         <v>247</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>243</v>
@@ -4015,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>224</v>
@@ -4033,7 +4041,7 @@
         <v>248</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4049,7 +4057,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>224</v>
@@ -4067,13 +4075,13 @@
         <v>250</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>243</v>
@@ -4087,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>224</v>
@@ -4102,16 +4110,16 @@
         <v>15</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>243</v>
@@ -4125,7 +4133,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>224</v>
@@ -4140,16 +4148,16 @@
         <v>15</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>243</v>
@@ -4163,13 +4171,13 @@
         <v>174</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F12" s="10">
         <v>-1</v>
@@ -4178,16 +4186,16 @@
         <v>15</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>243</v>
@@ -4201,7 +4209,7 @@
         <v>209</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>224</v>
@@ -4216,16 +4224,16 @@
         <v>15</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>243</v>
@@ -4239,10 +4247,10 @@
         <v>186</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>231</v>
@@ -4254,16 +4262,16 @@
         <v>16</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>243</v>
@@ -4277,7 +4285,7 @@
         <v>186</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>224</v>
@@ -4292,16 +4300,16 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>240</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>243</v>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6105" tabRatio="740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6105" tabRatio="692" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="314">
   <si>
     <t>Type</t>
   </si>
@@ -994,12 +994,6 @@
     </r>
   </si>
   <si>
-    <t>{"entity":"Encounter","property":mtb_result,"validate":"VALUE","value":"1301"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":mtb_result,"validate":"LIST","value":"1301,1302"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"VALUE","value":"165854"}OR
 {"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
 </t>
@@ -1026,6 +1020,15 @@
   </si>
   <si>
     <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
+  </si>
+  <si>
+    <t>Search Relationship.TREATMENT COORDINATOR</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"mtb_result","validate":"VALUE","value":"1301"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"mtb_result","validate":"LIST","value":"1301,1302"}</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3426,7 +3429,7 @@
         <v>250</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3434,7 +3437,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3442,7 +3445,7 @@
         <v>300</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3450,7 +3453,7 @@
         <v>301</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3467,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,7 +3537,7 @@
         <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>225</v>
@@ -3569,7 +3572,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>231</v>
@@ -3600,7 +3603,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
@@ -3618,7 +3621,7 @@
         <v>300</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
@@ -3636,7 +3639,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
@@ -3654,7 +3657,7 @@
         <v>301</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SADEEQA\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="6105" tabRatio="692" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" tabRatio="692" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Blacklist" sheetId="5" r:id="rId4"/>
     <sheet name="In Progress" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="334">
   <si>
     <t>Type</t>
   </si>
@@ -994,41 +994,142 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"VALUE","value":"165854"}OR
+    <t>NOTQUERY</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTEQUALS","value":"OTHER"}</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, ap ko {patient.getHealthCentre} pe doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 0800-11982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jis ka result aa gaya hai. Bara-e-mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jiska result aa gaya hai. Bara-e-Mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
+  </si>
+  <si>
+    <t>Search Relationship.TREATMENT COORDINATOR</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"gxp_result","validate":"LIST","value":"1301,1302"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
+OR{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}</t>
+  </si>
+  <si>
+    <t>-- DONT SEND IF
+select distinct pt.patient_id from patient as pt 
+-- Chtb Tx Initiation
+inner join encounter as pres on pres.encounter_type = 210 and pres.patient_id = pt.patient_id and pres.voided = 0 
+-- Chtb Tx fup exists after initiaion
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 68 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}
+</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
+OR{"entity":"encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
+OR{"entity":"encounter","encounter":"Missed Visit Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}</t>
+  </si>
+  <si>
+    <t>-- DONT SEND IF
+select distinct pt.patient_id from patient as pt 
+-- Chtb Tx Initiation
+inner join encounter as pres on pres.encounter_type = 210 and pres.patient_id = pt.patient_id and pres.voided = 0 
+-- Chtb Tx fup exists after initiaion
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 68 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime) 
+OR 
+-- Missed Visit after initiation
+exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 194 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime);</t>
+  </si>
+  <si>
+    <t>CC-CHTB-TEST-REM</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":Childhood TB-Antibiotic Trial Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
+OR{"entity":"Encounter","encounter":PET-Infection Treatment Eligibility,"validate":"Encounter","after":"Clinician Evaluation"}
+OR{"entity":"Encounter","encounter":Childhood TB-Treatment Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
+OR{"entity":"Encounter","encounter":PET-Treatment Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
+OR{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Clinician Evaluation"}</t>
+  </si>
+  <si>
+    <t>-- DONT SEND IF
+select distinct pt.patient_id from patient as pt 
+-- Clinician Evaluation
+inner join encounter as pres on pres.encounter_type = 208 and pres.patient_id = pt.patient_id and pres.voided = 0 
+-- Chtb Tx Initiation exists after clinician evaluation
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 210 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime) 
+OR 
+-- Chtb Antibiotic Trial exists after clinician evaluation
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 211 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime)
+OR 
+-- PET Tx Eligibility exists after clinician evaluation 
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 3 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime)
+OR 
+-- PET Initiation exists after clinician evaluation 
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 7 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime);</t>
+  </si>
+  <si>
+    <t>CC-CHTB-MO-EVAL</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"Clinician Evaluation","validate":"Encounter","after":"Childhood TB-Verbal Screening"}
+OR{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Verbal Screening"}</t>
+  </si>
+  <si>
+    <t>-- DONT SEND IF
+select distinct pt.patient_id from patient as pt 
+-- Chtb Verbal Screening
+inner join encounter as pres on pres.encounter_type = 51 and pres.patient_id = pt.patient_id and pres.voided = 0 
+-- Clinician evaluation after verbal
+where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 208 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime);</t>
+  </si>
+  <si>
+    <t>Childhood TB-TB Treatment Initiation</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"gxp_result","validate":"EQUALS","value":"1301"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"reason_for_call","validate":"EQUALS","value":"165816"}AND{"entity":"Encounter","property":"facility_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"reason_for_call","validate":"EQUALS","value":"166097"}AND{"entity":"Encounter","property":"facility_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCentre} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe test result lay ke doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"EQUALS","value":"165988"}OR
 {"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"VALUE","value":"165988"}OR
+    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"EQUALS","value":"165854"}OR
 {"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
 </t>
   </si>
   <si>
-    <t>NOTQUERY</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"referral_site","validate":"NOTEQUALS","value":"OTHER"}</t>
-  </si>
-  <si>
-    <t>Dear {patient.getFullName}, ap ko {patient.getHealthCentre} pe doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 0800-11982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jis ka result aa gaya hai. Bara-e-mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jiska result aa gaya hai. Bara-e-Mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
-  </si>
-  <si>
-    <t>Search Relationship.TREATMENT COORDINATOR</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"mtb_result","validate":"VALUE","value":"1301"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"mtb_result","validate":"LIST","value":"1301,1302"}</t>
+    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"EQUALS","value":"1065"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1666,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,7 +1932,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1840,7 +1941,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1849,7 +1950,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1858,7 +1959,7 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1867,7 +1968,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1876,7 +1977,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1885,7 +1986,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1894,7 +1995,7 @@
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1903,7 +2004,7 @@
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1912,7 +2013,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1921,7 +2022,7 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1930,7 +2031,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1939,7 +2040,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1948,7 +2049,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1957,7 +2058,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1966,7 +2067,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1975,7 +2076,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1984,7 +2085,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1993,7 +2094,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2002,7 +2103,7 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2011,7 +2112,7 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2020,7 +2121,7 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2029,7 +2130,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2038,7 +2139,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2047,7 +2148,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2056,7 +2157,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2065,7 +2166,7 @@
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2074,7 +2175,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2083,7 +2184,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2092,7 +2193,7 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2101,7 +2202,7 @@
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2110,7 +2211,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2119,7 +2220,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2128,7 +2229,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2137,7 +2238,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2146,7 +2247,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2155,7 +2256,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2164,7 +2265,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2173,7 +2274,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2182,7 +2283,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2191,7 +2292,7 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2200,7 +2301,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2209,7 +2310,7 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2218,7 +2319,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2227,7 +2328,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -2236,7 +2337,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -2245,7 +2346,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -2254,7 +2355,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -2263,7 +2364,7 @@
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2272,7 +2373,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2281,7 +2382,7 @@
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2290,7 +2391,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -2299,7 +2400,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2308,7 +2409,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -2317,7 +2418,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2326,7 +2427,7 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2335,7 +2436,7 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -2344,7 +2445,7 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2353,7 +2454,7 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2362,7 +2463,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -2371,7 +2472,7 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -2380,7 +2481,7 @@
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -2389,7 +2490,7 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -2398,7 +2499,7 @@
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -2407,7 +2508,7 @@
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2416,7 +2517,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -2425,7 +2526,7 @@
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -2434,7 +2535,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -2443,7 +2544,7 @@
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2452,7 +2553,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2461,7 +2562,7 @@
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -2470,7 +2571,7 @@
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -2479,7 +2580,7 @@
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2488,7 +2589,7 @@
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2497,7 +2598,7 @@
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -2506,7 +2607,7 @@
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -2515,7 +2616,7 @@
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2524,7 +2625,7 @@
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -2533,7 +2634,7 @@
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -2542,7 +2643,7 @@
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2551,7 +2652,7 @@
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2560,7 +2661,7 @@
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -2569,7 +2670,7 @@
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -2578,7 +2679,7 @@
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2587,7 +2688,7 @@
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -2596,7 +2697,7 @@
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -2605,7 +2706,7 @@
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -2614,7 +2715,7 @@
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -2623,7 +2724,7 @@
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -2632,7 +2733,7 @@
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -2641,7 +2742,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -2650,7 +2751,7 @@
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2659,7 +2760,7 @@
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2668,7 +2769,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2677,7 +2778,7 @@
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2686,7 +2787,7 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -2695,7 +2796,7 @@
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2704,7 +2805,7 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -2713,7 +2814,7 @@
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -2722,7 +2823,7 @@
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2731,7 +2832,7 @@
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -2740,7 +2841,7 @@
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -2749,7 +2850,7 @@
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2758,7 +2859,7 @@
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2767,7 +2868,7 @@
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -2776,7 +2877,7 @@
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -2785,7 +2886,7 @@
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -2794,7 +2895,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -2803,7 +2904,7 @@
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -2812,7 +2913,7 @@
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -2821,7 +2922,7 @@
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -2830,7 +2931,7 @@
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -2839,7 +2940,7 @@
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -2848,7 +2949,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -2857,7 +2958,7 @@
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -2866,7 +2967,7 @@
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -2875,7 +2976,7 @@
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -2884,7 +2985,7 @@
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -2893,7 +2994,7 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -2902,7 +3003,7 @@
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -2911,7 +3012,7 @@
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -2920,7 +3021,7 @@
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -2929,7 +3030,7 @@
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -2938,7 +3039,7 @@
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -2947,7 +3048,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -2956,7 +3057,7 @@
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -2965,7 +3066,7 @@
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -2974,7 +3075,7 @@
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -2983,7 +3084,7 @@
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -2992,7 +3093,7 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -3001,7 +3102,7 @@
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -3010,7 +3111,7 @@
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -3019,7 +3120,7 @@
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -3028,7 +3129,7 @@
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -3037,7 +3138,7 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -3046,7 +3147,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -3055,7 +3156,7 @@
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -3064,7 +3165,7 @@
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -3073,7 +3174,7 @@
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -3082,7 +3183,7 @@
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -3091,7 +3192,7 @@
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -3100,7 +3201,7 @@
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -3109,7 +3210,7 @@
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -3118,7 +3219,7 @@
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -3127,7 +3228,7 @@
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -3136,7 +3237,7 @@
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -3145,7 +3246,7 @@
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -3154,7 +3255,7 @@
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -3163,7 +3264,7 @@
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -3172,7 +3273,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -3181,7 +3282,7 @@
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -3190,7 +3291,7 @@
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -3199,7 +3300,7 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -3208,7 +3309,7 @@
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -3217,7 +3318,7 @@
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -3226,7 +3327,7 @@
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -3235,7 +3336,7 @@
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -3244,7 +3345,7 @@
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -3253,7 +3354,7 @@
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -3262,7 +3363,7 @@
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -3271,7 +3372,7 @@
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -3280,7 +3381,7 @@
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -3289,7 +3390,7 @@
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -3298,7 +3399,7 @@
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -3307,7 +3408,7 @@
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -3316,7 +3417,7 @@
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -3325,7 +3426,7 @@
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -3334,7 +3435,7 @@
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -3343,7 +3444,7 @@
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -3352,7 +3453,7 @@
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -3361,7 +3462,7 @@
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -3370,7 +3471,7 @@
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -3379,10 +3480,19 @@
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
     </row>
   </sheetData>
   <sortState ref="C2:C209">
@@ -3395,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,7 +3539,7 @@
         <v>250</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3547,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3445,7 +3555,7 @@
         <v>300</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3453,12 +3563,48 @@
         <v>301</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3468,22 +3614,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="92.5703125" style="14" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
@@ -3491,7 +3637,7 @@
     <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +3675,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -3537,7 +3683,7 @@
         <v>203</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>225</v>
@@ -3563,7 +3709,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -3572,7 +3718,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>231</v>
@@ -3595,7 +3741,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3603,7 +3749,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
@@ -3621,7 +3767,7 @@
         <v>300</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
@@ -3631,7 +3777,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3639,7 +3785,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
@@ -3657,7 +3803,7 @@
         <v>301</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
@@ -3667,7 +3813,214 @@
         <v>243</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B1048576">
+      <formula1>$C$2:$C$205</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -3677,25 +4030,25 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G8 G11:G1048576</xm:sqref>
+          <xm:sqref>G12:G13 G14:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Reference!$C$2:$C$208</xm:f>
+            <xm:f>Reference!$C$2:$C$209</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B8 B11:B1048576</xm:sqref>
+          <xm:sqref>B6:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D8 D11:D1048576</xm:sqref>
+          <xm:sqref>D6 D12:D13 D14:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Select notification type">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A6:A8 A11:A1048576</xm:sqref>
+          <xm:sqref>A6:A10 A12:A13 A14:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4326,7 +4679,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Reference!$C$2:$C$208</xm:f>
+            <xm:f>Reference!$C$2:$C$209</xm:f>
           </x14:formula1>
           <xm:sqref>B18:B1048576</xm:sqref>
         </x14:dataValidation>

--- a/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
+++ b/gfatm-notifications-sms/src/main/resources/rules/RuleBook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SADEEQA\Desktop\automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\gfatm-notifications\gfatm-notifications-sms\src\main\resources\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" tabRatio="692" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6300" tabRatio="692" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="335">
   <si>
     <t>Type</t>
   </si>
@@ -1000,15 +1000,6 @@
     <t>{"entity":"Encounter","property":"referral_site","validate":"NOTEQUALS","value":"OTHER"}</t>
   </si>
   <si>
-    <t>Dear {patient.getFullName}, ap ko {patient.getHealthCentre} pe doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 0800-11982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jis ka result aa gaya hai. Bara-e-mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jiska result aa gaya hai. Bara-e-Mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 021-111-111-982 pe rabta karain.</t>
-  </si>
-  <si>
     <t>Dear {user.getFullName}, PID {patient.getPatientIdentifier} {location.getLocationName} pe register ho gay hain. In say rabta karain.</t>
   </si>
   <si>
@@ -1016,27 +1007,10 @@
   </si>
   <si>
     <t>{"entity":"Encounter","property":"gxp_result","validate":"LIST","value":"1301,1302"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
-OR{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}</t>
-  </si>
-  <si>
-    <t>-- DONT SEND IF
-select distinct pt.patient_id from patient as pt 
--- Chtb Tx Initiation
-inner join encounter as pres on pres.encounter_type = 210 and pres.patient_id = pt.patient_id and pres.voided = 0 
--- Chtb Tx fup exists after initiaion
-where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 68 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime);</t>
   </si>
   <si>
     <t xml:space="preserve">{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}
 </t>
-  </si>
-  <si>
-    <t>{"entity":"encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
-OR{"entity":"encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
-OR{"entity":"encounter","encounter":"Missed Visit Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}</t>
   </si>
   <si>
     <t>-- DONT SEND IF
@@ -1051,13 +1025,6 @@
   </si>
   <si>
     <t>CC-CHTB-TEST-REM</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","encounter":Childhood TB-Antibiotic Trial Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
-OR{"entity":"Encounter","encounter":PET-Infection Treatment Eligibility,"validate":"Encounter","after":"Clinician Evaluation"}
-OR{"entity":"Encounter","encounter":Childhood TB-Treatment Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
-OR{"entity":"Encounter","encounter":PET-Treatment Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
-OR{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Clinician Evaluation"}</t>
   </si>
   <si>
     <t>-- DONT SEND IF
@@ -1080,10 +1047,6 @@
     <t>CC-CHTB-MO-EVAL</t>
   </si>
   <si>
-    <t>{"entity":"Encounter","encounter":"Clinician Evaluation","validate":"Encounter","after":"Childhood TB-Verbal Screening"}
-OR{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Verbal Screening"}</t>
-  </si>
-  <si>
     <t>-- DONT SEND IF
 select distinct pt.patient_id from patient as pt 
 -- Chtb Verbal Screening
@@ -1098,38 +1061,95 @@
     <t>{"entity":"Encounter","property":"gxp_result","validate":"EQUALS","value":"1301"}</t>
   </si>
   <si>
-    <t>{"entity":"Encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"reason_for_call","validate":"EQUALS","value":"165816"}AND{"entity":"Encounter","property":"facility_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"reason_for_call","validate":"EQUALS","value":"166097"}AND{"entity":"Encounter","property":"facility_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, barooz {encounter.return_visit_date.day}, {patient.getHealthCentre} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe test result lay ke doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t>{patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, barooz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"EQUALS","value":"165988"}OR
-{"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"EQUALS","value":"165854"}OR
-{"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}
-</t>
-  </si>
-  <si>
-    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"EQUALS","value":"1065"}AND{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}AND{"entity":"patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+    <t>Dear {patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, baroz {encounter.facility_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, baroz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe test result lay ke doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.facility_visit_date}, baroz {encounter.return_visit_date.day}, {encounter.facility_scheduled} pe doctor ke paas moainey ke liyey tashreef lana hai. Agar Ap pechle 3 din me tashreef la chuke he to iss message ko nazar andaz kar de. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, aap ko yaad karana chahtain hain kay ap ko {encounter.return_visit_date}, baroz {encounter.return_visit_date.day}, AaoTBMitao ki facility {patient.getHealthCentre} pe doctor ke paas moainey aur adwiyaat hasil karne ke liyey tashreef lana hai. Agar is kay mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"EQUALS","value":"165988"}OR
+{"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"FAST-Presumptive","property":"screening_type","validate":"EQUALS","value":"165854"}OR
+{"entity":"Encounter","encounter":"FAST-Treatment Initiation","validate":"PRESENT"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"treatment_initiated","validate":"EQUALS","value":"1065"}
+AND
+{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}
+AND
+{"entity":"Patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"treatment_plan","validate":"LIST","value":"164439,1257"}
+AND
+{"entity":"Encounter","property":"return_visit_date","validate":"NOTNULL"}
+AND
+{"entity":"Patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"reason_for_call","validate":"EQUALS","value":"165816"}
+AND
+{"entity":"Encounter","property":"facility_visit_date","validate":"NOTNULL"}
+AND
+{"entity":"Patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","property":"reason_for_call","validate":"EQUALS","value":"166097"}
+AND
+{"entity":"Encounter","property":"facility_visit_date","validate":"NOTNULL"}
+AND
+{"entity":"Patient","property":"getHealthCenterId","validate":"QUERY","value":"SELECT location_id FROM location WHERE name not in ( 'SGHNK-KHI','IHK-KHI','GHAURI-CLINIC','ICD-KTR');"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
+OR
+{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-TB Treatment Followup"}</t>
+  </si>
+  <si>
+    <t>{"entity":"encounter","Encounter":"Childhood TB-TB Treatment Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
+OR
+{"entity":"encounter","Encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Treatment Initiation"}
+OR
+{"entity":"encounter","encounter":"Missed Visit Followup","validate":"encounter","after":"Childhood TB-Treatment Initiation"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":Childhood TB-Antibiotic Trial Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
+OR
+{"entity":"Encounter","encounter":PET-Infection Treatment Eligibility,"validate":"Encounter","after":"Clinician Evaluation"}
+OR
+{"entity":"Encounter","encounter":Childhood TB-Treatment Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
+OR
+{"entity":"Encounter","encounter":PET-Treatment Initiation,"validate":"Encounter","after":"Clinician Evaluation"}
+OR
+{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Clinician Evaluation"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Encounter","encounter":"Clinician Evaluation","validate":"Encounter","after":"Childhood TB-Verbal Screening"}
+OR
+{"entity":"Encounter","encounter":"End of Followup","validate":"Encounter","after":"Childhood TB-Verbal Screening"}</t>
+  </si>
+  <si>
+    <t>{"entity":"Patient","property":"getPatientId","validate":"QUERY","value":"select distinct pt.patient_id from patient as pt inner join encounter as pres on pres.encounter_type = 210 and pres.patient_id = pt.patient_id and pres.voided = 0 where exists (select * from encounter as e where e.voided = 0 and e.encounter_type = 68 and e.patient_id = pt.patient_id and e.encounter_datetime &gt; pres.encounter_datetime);"}"</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, ap ko {patient.getHealthCentre} pe doctor ke paas {encounter.return_visit_date} ko moainey aur adwiyaat hasil karne ke liyey tashreef lana tha mager aap na aa sakay. Bara-e-Meherbani, apnay muainay kay liyay tashreef laiyay. Ager aap apna muqarrara muaina kerwa chukay hain, to is SMS ko nazar andaaz kejiyay. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, AaoTBMitao ki facility {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jis ka result aa gaya hai. Bara-e-mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
+  </si>
+  <si>
+    <t>Dear {patient.getFullName}, {patient.getPatientIdentifierLocation} pe ap nay balgham ka namoona jama kiya tha jiska result aa gaya hai. Bara-e-Mehrbani aap aa kar apna result wusool kar lain. Agar is mutaliq ap kuch poochna chahain tou AaoTBMitao helpline 080011982 pe rabta karain.</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1220,14 +1240,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1511,8 +1537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,9 +1664,7 @@
       <c r="C5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="14"/>
       <c r="H5" s="14" t="s">
@@ -1932,7 +1957,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3507,103 +3532,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="157.140625" style="17" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>306</v>
+      <c r="B5" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>327</v>
+      <c r="B8" s="16" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>328</v>
+      <c r="B9" s="20" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>329</v>
+      <c r="A10" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>330</v>
+      <c r="A11" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3616,15 +3642,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="14"/>
     <col min="2" max="2" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="171.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -3634,45 +3661,49 @@
     <col min="10" max="10" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="13" max="13" width="73.85546875" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="18" t="s">
         <v>242</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3708,6 +3739,7 @@
       <c r="L2" s="10" t="s">
         <v>243</v>
       </c>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3718,7 +3750,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>231</v>
@@ -3740,8 +3772,9 @@
       <c r="L3" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +3782,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>224</v>
@@ -3766,8 +3799,8 @@
       <c r="H4" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>331</v>
+      <c r="I4" s="16" t="s">
+        <v>320</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
@@ -3776,8 +3809,9 @@
       <c r="L4" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3819,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>224</v>
@@ -3802,8 +3836,8 @@
       <c r="H5" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>332</v>
+      <c r="I5" s="16" t="s">
+        <v>321</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
@@ -3812,207 +3846,209 @@
       <c r="L5" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="16">
         <v>-1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="I10" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K10" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L10" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>320</v>
+      <c r="M10" s="16" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +4066,7 @@
           <x14:formula1>
             <xm:f>Reference!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G12:G13 G14:G1048576</xm:sqref>
+          <xm:sqref>G12:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4042,13 +4078,13 @@
           <x14:formula1>
             <xm:f>Reference!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D6 D12:D13 D14:D1048576</xm:sqref>
+          <xm:sqref>D6 D12:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Select notification type">
           <x14:formula1>
             <xm:f>Reference!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A6:A10 A12:A13 A14:A1048576</xm:sqref>
+          <xm:sqref>A6:A10 A12:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4094,7 +4130,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
